--- a/Data/Participant data/data_participants.xlsx
+++ b/Data/Participant data/data_participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GonzaloGGC/projects/CognatePriming/Data/Participant data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F044D9-C4DB-F14B-B8DF-52723210CA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E41729-DB7E-744D-B3B7-D24C7D05395B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -303,6 +303,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +549,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1495,6 +1496,10 @@
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
+      <c r="H19" s="15">
+        <f>AVERAGE(H2:H18)</f>
+        <v>29.070588235294121</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -1504,6 +1509,10 @@
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <f>STDEV(H2:H18)</f>
+        <v>3.3167060791824925</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>

--- a/Data/Participant data/data_participants.xlsx
+++ b/Data/Participant data/data_participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GonzaloGGC/projects/CognatePriming/Data/Participant data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC677EB-9409-9644-8B15-3CAC7E6000BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB65CC1A-55CA-4A4C-8F31-118F32409383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5400" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="-14400" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="187">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="192">
   <si>
     <t>cognatepriming1</t>
   </si>
@@ -174,69 +171,27 @@
     <t>arbol. sombrero, barco, flor, queso, pez, manzana</t>
   </si>
   <si>
-    <t>ID_db</t>
-  </si>
-  <si>
     <t>Experimental failure</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>DateTest</t>
-  </si>
-  <si>
     <t>DateBirth</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Spanish</t>
   </si>
   <si>
     <t>Catalan</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>UnfamiliarSpanish</t>
-  </si>
-  <si>
-    <t>UnfamiliarCatalan</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Pilot</t>
-  </si>
-  <si>
     <t>cognatepriming18</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
     <t>euro</t>
   </si>
   <si>
-    <t>LangProfile</t>
-  </si>
-  <si>
     <t>Monolingual</t>
   </si>
   <si>
@@ -294,12 +249,6 @@
     <t>cognatepriming28</t>
   </si>
   <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>AgeGroup</t>
-  </si>
-  <si>
     <t>latin</t>
   </si>
   <si>
@@ -330,9 +279,6 @@
     <t>cognatepriming35</t>
   </si>
   <si>
-    <t>CDI</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -342,9 +288,6 @@
     <t>cognatepriming37</t>
   </si>
   <si>
-    <t>Filename</t>
-  </si>
-  <si>
     <t>CognatePriming_001_2019-05-28.csv</t>
   </si>
   <si>
@@ -591,7 +534,79 @@
     <t>CognatePriming_047_2020-03-11.csv</t>
   </si>
   <si>
-    <t>12th Mar%</t>
+    <t>participant_id</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>id_db</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>date_test</t>
+  </si>
+  <si>
+    <t>date_birth</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>age_today</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>doe_spanish</t>
+  </si>
+  <si>
+    <t>doe_catalan</t>
+  </si>
+  <si>
+    <t>doe_english</t>
+  </si>
+  <si>
+    <t>doe_others</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>valid_participant</t>
+  </si>
+  <si>
+    <t>cdi_completed</t>
+  </si>
+  <si>
+    <t>unfamiliar_cat</t>
+  </si>
+  <si>
+    <t>unfamiliar_spa</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>test_language</t>
   </si>
 </sst>
 </file>
@@ -699,13 +714,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="22">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="2"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -734,6 +843,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -853,137 +969,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="2"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -991,7 +976,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{799826AF-53FE-134F-8CF5-CB4CB1783756}">
-      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1006,13 +991,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B806190-7D35-294B-BD17-947BC089A41E}" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B806190-7D35-294B-BD17-947BC089A41E}" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:G49" xr:uid="{841E7AFE-ED4E-4947-8D5A-3F6D74130880}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7CD581B8-20B0-134F-80D6-F2192740E4ED}" name="Participant" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{70F7CEA6-A1F5-C740-A6D0-C32F4555DDF0}" name="Location" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{3676706C-00EE-6F48-8031-43EAFCC65B23}" name="DateBirth" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{DD4094E8-F896-D64C-951E-5E38685DF38A}" name="AgeToday" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{7CD581B8-20B0-134F-80D6-F2192740E4ED}" name="Participant" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{70F7CEA6-A1F5-C740-A6D0-C32F4555DDF0}" name="Location" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3676706C-00EE-6F48-8031-43EAFCC65B23}" name="DateBirth" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DD4094E8-F896-D64C-951E-5E38685DF38A}" name="AgeToday" dataDxfId="0">
       <calculatedColumnFormula>(TODAY()-Table1[[#This Row],[DateBirth]])/30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{209D5AE7-6EF2-684D-A140-6C485279ED6E}" name="Age20">
@@ -1228,9 +1213,9 @@
   </sheetPr>
   <dimension ref="A1:AD977"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62:E63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1260,79 +1245,79 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -1342,7 +1327,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1357,16 +1342,16 @@
         <v>56927</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3">
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4">
         <v>43613</v>
@@ -1380,10 +1365,10 @@
       </c>
       <c r="M2" s="5">
         <f t="shared" ref="M2:M33" ca="1" si="1">(TODAY()-K2)/30</f>
-        <v>45.43333333333333</v>
+        <v>48.9</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="6">
         <v>0.91</v>
@@ -1398,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" s="11" t="b">
         <v>0</v>
@@ -1410,18 +1395,18 @@
         <v>0</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1436,16 +1421,16 @@
         <v>54904</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4">
         <v>43619</v>
@@ -1459,10 +1444,10 @@
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>28.066666666666666</v>
+        <v>31.533333333333335</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" s="6">
         <v>7.0000000000000007E-2</v>
@@ -1477,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3" s="11" t="b">
         <v>0</v>
@@ -1489,18 +1474,18 @@
         <v>0</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1515,16 +1500,16 @@
         <v>53292</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4">
         <v>43620</v>
@@ -1538,10 +1523,10 @@
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>38.333333333333336</v>
+        <v>41.8</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" s="6">
         <v>0.45</v>
@@ -1556,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" s="12" t="b">
         <v>1</v>
@@ -1568,18 +1553,18 @@
         <v>0</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1594,16 +1579,16 @@
         <v>51273</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="4">
         <v>43635</v>
@@ -1617,10 +1602,10 @@
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>37.1</v>
+        <v>40.56666666666667</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" s="6">
         <v>0</v>
@@ -1635,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5" s="12" t="b">
         <v>1</v>
@@ -1647,18 +1632,18 @@
         <v>0</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y5" s="16" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1673,16 +1658,16 @@
         <v>54563</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="4">
         <v>43718</v>
@@ -1696,10 +1681,10 @@
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.6</v>
+        <v>38.06666666666667</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="6">
         <v>0.87</v>
@@ -1714,30 +1699,30 @@
         <v>0.05</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="V6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="X6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1752,16 +1737,16 @@
         <v>57148</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="4">
         <v>43722</v>
@@ -1775,10 +1760,10 @@
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>37.033333333333331</v>
+        <v>40.5</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="6">
         <v>0.05</v>
@@ -1793,10 +1778,10 @@
         <v>0.37</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U7" s="12" t="b">
         <v>1</v>
@@ -1805,18 +1790,18 @@
         <v>1</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1831,16 +1816,16 @@
         <v>53655</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="4">
         <v>43729</v>
@@ -1854,10 +1839,10 @@
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.033333333333331</v>
+        <v>38.5</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" s="6">
         <v>0.37</v>
@@ -1872,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U8" s="11" t="b">
         <v>1</v>
@@ -1884,18 +1869,18 @@
         <v>1</v>
       </c>
       <c r="W8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X8" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="Y8" s="16" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1910,16 +1895,16 @@
         <v>54202</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="4">
         <v>43730</v>
@@ -1933,10 +1918,10 @@
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.033333333333331</v>
+        <v>38.5</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6">
         <v>0.54</v>
@@ -1951,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U9" s="11" t="b">
         <v>0</v>
@@ -1963,18 +1948,18 @@
         <v>1</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -1989,16 +1974,16 @@
         <v>52360</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="4">
         <v>43731</v>
@@ -2012,10 +1997,10 @@
       </c>
       <c r="M10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.93333333333333</v>
+        <v>39.4</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O10" s="6">
         <v>0.33</v>
@@ -2030,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U10" s="12" t="b">
         <v>1</v>
@@ -2042,18 +2027,18 @@
         <v>1</v>
       </c>
       <c r="W10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="Y10" s="16" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2068,16 +2053,16 @@
         <v>54322</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="4">
         <v>43734</v>
@@ -2091,10 +2076,10 @@
       </c>
       <c r="M11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.666666666666664</v>
+        <v>36.133333333333333</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="6">
         <v>0.45</v>
@@ -2109,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U11" s="12" t="b">
         <v>1</v>
@@ -2121,18 +2106,18 @@
         <v>1</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -2147,16 +2132,16 @@
         <v>54286</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="4">
         <v>43738</v>
@@ -2170,10 +2155,10 @@
       </c>
       <c r="M12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O12" s="6">
         <v>0.63</v>
@@ -2188,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" s="12" t="b">
         <v>1</v>
@@ -2200,18 +2185,18 @@
         <v>1</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -2226,16 +2211,16 @@
         <v>54169</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="4">
         <v>43739</v>
@@ -2249,10 +2234,10 @@
       </c>
       <c r="M13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.866666666666667</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="6">
         <v>0.51</v>
@@ -2267,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U13" s="12" t="b">
         <v>1</v>
@@ -2279,18 +2264,18 @@
         <v>0</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X13" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -2305,16 +2290,16 @@
         <v>51407</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="4">
         <v>43742</v>
@@ -2328,10 +2313,10 @@
       </c>
       <c r="M14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.93333333333333</v>
+        <v>40.4</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="8">
         <v>0.6</v>
@@ -2346,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" s="12" t="b">
         <v>1</v>
@@ -2358,18 +2343,18 @@
         <v>1</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2384,16 +2369,16 @@
         <v>52554</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="4">
         <v>43742</v>
@@ -2407,10 +2392,10 @@
       </c>
       <c r="M15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.700000000000003</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="8">
         <v>0.75</v>
@@ -2425,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="U15" s="12" t="b">
         <v>0</v>
@@ -2437,15 +2422,15 @@
         <v>0</v>
       </c>
       <c r="W15" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -2460,16 +2445,16 @@
         <v>52823</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="9">
         <v>43743</v>
@@ -2483,10 +2468,10 @@
       </c>
       <c r="M16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.966666666666669</v>
+        <v>38.43333333333333</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O16" s="8">
         <v>0.5</v>
@@ -2501,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U16" s="12" t="b">
         <v>1</v>
@@ -2513,18 +2498,18 @@
         <v>0</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X16" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2539,16 +2524,16 @@
         <v>53656</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3">
         <v>2</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="9">
         <v>43743</v>
@@ -2562,10 +2547,10 @@
       </c>
       <c r="M17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38.466666666666669</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="8">
         <v>0.63</v>
@@ -2580,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U17" s="12" t="b">
         <v>1</v>
@@ -2592,18 +2577,18 @@
         <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -2618,16 +2603,16 @@
         <v>54160</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="9">
         <v>43749</v>
@@ -2641,10 +2626,10 @@
       </c>
       <c r="M18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.06666666666667</v>
+        <v>37.533333333333331</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O18" s="8">
         <v>0.25</v>
@@ -2659,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U18" s="12" t="b">
         <v>1</v>
@@ -2671,18 +2656,18 @@
         <v>0</v>
       </c>
       <c r="W18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="X18" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="Y18" s="16" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -2697,16 +2682,16 @@
         <v>54377</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J19" s="9">
         <v>43795</v>
@@ -2720,10 +2705,10 @@
       </c>
       <c r="M19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.200000000000003</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" s="8">
         <v>0.46</v>
@@ -2738,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="U19" s="12" t="b">
         <v>0</v>
@@ -2750,18 +2735,18 @@
         <v>1</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -2776,16 +2761,16 @@
         <v>54731</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H20" s="14">
         <v>2</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J20" s="9">
         <v>43797</v>
@@ -2799,10 +2784,10 @@
       </c>
       <c r="M20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.43333333333333</v>
+        <v>36.9</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" s="8">
         <v>0.4</v>
@@ -2817,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="U20" s="11" t="b">
         <v>1</v>
@@ -2829,18 +2814,18 @@
         <v>1</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -2855,16 +2840,16 @@
         <v>54538</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J21" s="9">
         <v>43799</v>
@@ -2878,10 +2863,10 @@
       </c>
       <c r="M21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>30.666666666666668</v>
+        <v>34.133333333333333</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" s="8">
         <v>0.74</v>
@@ -2896,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="U21" s="12" t="b">
         <v>0</v>
@@ -2908,18 +2893,18 @@
         <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -2934,16 +2919,16 @@
         <v>54379</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H22" s="14">
         <v>2</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J22" s="9">
         <v>43799</v>
@@ -2957,10 +2942,10 @@
       </c>
       <c r="M22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.166666666666664</v>
+        <v>35.633333333333333</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O22" s="8">
         <v>0.4</v>
@@ -2975,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="U22" s="12" t="b">
         <v>1</v>
@@ -2987,18 +2972,18 @@
         <v>1</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -3013,16 +2998,16 @@
         <v>50010</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H23" s="14">
         <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J23" s="9">
         <v>43799</v>
@@ -3036,10 +3021,10 @@
       </c>
       <c r="M23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>43.466666666666669</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O23" s="8">
         <v>0.76</v>
@@ -3054,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="U23" s="12" t="b">
         <v>0</v>
@@ -3066,18 +3051,18 @@
         <v>1</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -3092,16 +3077,16 @@
         <v>54548</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H24" s="14">
         <v>3</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J24" s="9">
         <v>43799</v>
@@ -3115,10 +3100,10 @@
       </c>
       <c r="M24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>30.633333333333333</v>
+        <v>34.1</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" s="8">
         <v>0.98</v>
@@ -3133,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U24" s="12" t="b">
         <v>1</v>
@@ -3145,18 +3130,18 @@
         <v>1</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -3171,16 +3156,16 @@
         <v>55155</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H25" s="14">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J25" s="9">
         <v>43811</v>
@@ -3194,10 +3179,10 @@
       </c>
       <c r="M25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>27.6</v>
+        <v>31.066666666666666</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="8">
         <v>0.2</v>
@@ -3212,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="U25" s="12" t="b">
         <v>1</v>
@@ -3224,18 +3209,18 @@
         <v>1</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -3250,16 +3235,16 @@
         <v>54250</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H26" s="14">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J26" s="15">
         <v>43813</v>
@@ -3273,10 +3258,10 @@
       </c>
       <c r="M26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.43333333333333</v>
+        <v>36.9</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="8">
         <v>0.18</v>
@@ -3291,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="U26" s="12" t="b">
         <v>0</v>
@@ -3303,18 +3288,18 @@
         <v>1</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y26" s="16" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -3329,16 +3314,16 @@
         <v>54487</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H27" s="14">
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J27" s="15">
         <v>43813</v>
@@ -3352,10 +3337,10 @@
       </c>
       <c r="M27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>30.9</v>
+        <v>34.366666666666667</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" s="8">
         <v>0.43</v>
@@ -3370,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="U27" s="12" t="b">
         <v>1</v>
@@ -3382,18 +3367,18 @@
         <v>1</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X27" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -3408,16 +3393,16 @@
         <v>54840</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H28" s="14">
         <v>2</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J28" s="15">
         <v>43813</v>
@@ -3431,10 +3416,10 @@
       </c>
       <c r="M28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>31.7</v>
+        <v>35.166666666666664</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="8">
         <v>0.11</v>
@@ -3449,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U28" s="12" t="b">
         <v>1</v>
@@ -3461,18 +3446,18 @@
         <v>1</v>
       </c>
       <c r="W28" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X28" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -3487,16 +3472,16 @@
         <v>54469</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H29" s="14">
         <v>3</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J29" s="15">
         <v>43813</v>
@@ -3510,10 +3495,10 @@
       </c>
       <c r="M29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>31.4</v>
+        <v>34.866666666666667</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" s="8">
         <v>0.93</v>
@@ -3528,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="U29" s="12" t="b">
         <v>1</v>
@@ -3540,18 +3525,18 @@
         <v>0</v>
       </c>
       <c r="W29" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -3566,16 +3551,16 @@
         <v>54639</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J30" s="15">
         <v>43845</v>
@@ -3589,10 +3574,10 @@
       </c>
       <c r="M30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>29.733333333333334</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="8">
         <v>0.76</v>
@@ -3607,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U30" s="12" t="b">
         <v>1</v>
@@ -3619,18 +3604,18 @@
         <v>1</v>
       </c>
       <c r="W30" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -3645,16 +3630,16 @@
         <v>54705</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H31" s="14">
         <v>3</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J31" s="9">
         <v>43848</v>
@@ -3668,10 +3653,10 @@
       </c>
       <c r="M31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>29.033333333333335</v>
+        <v>32.5</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O31" s="8">
         <v>0.84</v>
@@ -3686,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U31" s="12" t="b">
         <v>1</v>
@@ -3698,18 +3683,18 @@
         <v>1</v>
       </c>
       <c r="W31" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X31" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y31" s="16" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B32" s="14">
         <v>1</v>
@@ -3724,16 +3709,16 @@
         <v>54680</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H32" s="14">
         <v>2</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J32" s="9">
         <v>43847</v>
@@ -3747,10 +3732,10 @@
       </c>
       <c r="M32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>29.333333333333332</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O32" s="8">
         <v>0.66</v>
@@ -3765,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U32" s="12" t="b">
         <v>1</v>
@@ -3777,18 +3762,18 @@
         <v>1</v>
       </c>
       <c r="W32" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X32" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -3803,16 +3788,16 @@
         <v>55537</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H33" s="14">
         <v>2</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J33" s="9">
         <v>43848</v>
@@ -3826,10 +3811,10 @@
       </c>
       <c r="M33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>29.633333333333333</v>
+        <v>33.1</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" s="6">
         <v>0.47</v>
@@ -3844,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T33" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U33" s="12" t="b">
         <v>1</v>
@@ -3856,18 +3841,18 @@
         <v>1</v>
       </c>
       <c r="W33" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X33" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -3882,16 +3867,16 @@
         <v>54717</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H34" s="14">
         <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J34" s="15">
         <v>43853</v>
@@ -3905,10 +3890,10 @@
       </c>
       <c r="M34" s="5">
         <f t="shared" ref="M34:M50" ca="1" si="3">(TODAY()-K34)/30</f>
-        <v>29</v>
+        <v>32.466666666666669</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O34" s="8">
         <v>0.82</v>
@@ -3923,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U34" s="11" t="b">
         <v>1</v>
@@ -3935,18 +3920,18 @@
         <v>1</v>
       </c>
       <c r="W34" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X34" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -3961,16 +3946,16 @@
         <v>54709</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J35" s="9">
         <v>43858</v>
@@ -3984,10 +3969,10 @@
       </c>
       <c r="M35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>29.133333333333333</v>
+        <v>32.6</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O35" s="8">
         <v>0.37</v>
@@ -4002,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U35" s="12" t="b">
         <v>1</v>
@@ -4014,18 +3999,18 @@
         <v>1</v>
       </c>
       <c r="W35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -4040,16 +4025,16 @@
         <v>55108</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H36" s="14">
         <v>2</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J36" s="15">
         <v>43862</v>
@@ -4063,10 +4048,10 @@
       </c>
       <c r="M36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>28.333333333333332</v>
+        <v>31.8</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" s="6">
         <v>0.46</v>
@@ -4081,10 +4066,10 @@
         <v>0.04</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T36" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="U36" s="11" t="b">
         <v>0</v>
@@ -4093,18 +4078,18 @@
         <v>1</v>
       </c>
       <c r="W36" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X36" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -4119,16 +4104,16 @@
         <v>54875</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J37" s="9">
         <v>43867</v>
@@ -4142,10 +4127,10 @@
       </c>
       <c r="M37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.866666666666667</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O37" s="8">
         <v>0.89</v>
@@ -4160,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T37" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U37" s="12" t="b">
         <v>1</v>
@@ -4172,15 +4157,15 @@
         <v>1</v>
       </c>
       <c r="W37" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -4195,16 +4180,16 @@
         <v>58059</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H38" s="14">
         <v>3</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J38" s="9">
         <v>43869</v>
@@ -4218,10 +4203,10 @@
       </c>
       <c r="M38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>24.766666666666666</v>
+        <v>28.233333333333334</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O38" s="8">
         <v>0.48</v>
@@ -4236,10 +4221,10 @@
         <v>0.3</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U38" s="12" t="b">
         <v>0</v>
@@ -4248,15 +4233,15 @@
         <v>1</v>
       </c>
       <c r="W38" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y38" s="16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -4271,16 +4256,16 @@
         <v>54816</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H39" s="14">
         <v>3</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J39" s="9">
         <v>43871</v>
@@ -4294,10 +4279,10 @@
       </c>
       <c r="M39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>28.4</v>
+        <v>31.866666666666667</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" s="8">
         <v>0.16</v>
@@ -4312,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="U39" s="12" t="b">
         <v>1</v>
@@ -4324,18 +4309,18 @@
         <v>1</v>
       </c>
       <c r="W39" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X39" s="14" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
@@ -4350,16 +4335,16 @@
         <v>54788</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H40" s="14">
         <v>2</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J40" s="15">
         <v>43871</v>
@@ -4373,10 +4358,10 @@
       </c>
       <c r="M40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>28.666666666666668</v>
+        <v>32.133333333333333</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O40" s="6">
         <v>1</v>
@@ -4391,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U40" s="11" t="b">
         <v>1</v>
@@ -4403,18 +4388,18 @@
         <v>0</v>
       </c>
       <c r="W40" s="14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="X40" s="14" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -4429,16 +4414,16 @@
         <v>54866</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J41" s="9">
         <v>43875</v>
@@ -4452,10 +4437,10 @@
       </c>
       <c r="M41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>28.033333333333335</v>
+        <v>31.5</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O41" s="8">
         <v>0.15</v>
@@ -4470,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="U41" s="12" t="b">
         <v>1</v>
@@ -4482,18 +4467,18 @@
         <v>0</v>
       </c>
       <c r="W41" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X41" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y41" s="14" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -4508,16 +4493,16 @@
         <v>54912</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H42" s="14">
         <v>2</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J42" s="9">
         <v>43876</v>
@@ -4531,10 +4516,10 @@
       </c>
       <c r="M42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.933333333333334</v>
+        <v>31.4</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" s="8">
         <v>0.98</v>
@@ -4549,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="U42" s="12" t="b">
         <v>1</v>
@@ -4561,18 +4546,18 @@
         <v>1</v>
       </c>
       <c r="W42" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X42" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y42" s="14" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -4587,16 +4572,16 @@
         <v>54993</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H43" s="14">
         <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J43" s="9">
         <v>43886</v>
@@ -4610,10 +4595,10 @@
       </c>
       <c r="M43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.133333333333333</v>
+        <v>30.6</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O43" s="8">
         <v>0.77</v>
@@ -4628,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="U43" s="12" t="b">
         <v>1</v>
@@ -4640,18 +4625,18 @@
         <v>1</v>
       </c>
       <c r="W43" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X43" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y43" s="14" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -4666,16 +4651,16 @@
         <v>54960</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H44" s="14">
         <v>2</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J44" s="9">
         <v>43889</v>
@@ -4689,10 +4674,10 @@
       </c>
       <c r="M44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.3</v>
+        <v>30.766666666666666</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O44" s="8">
         <v>0.51</v>
@@ -4707,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="U44" s="12" t="b">
         <v>1</v>
@@ -4719,18 +4704,18 @@
         <v>0</v>
       </c>
       <c r="W44" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X44" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y44" s="14" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -4745,16 +4730,16 @@
         <v>54815</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H45" s="14">
         <v>2</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J45" s="15">
         <v>43890</v>
@@ -4768,10 +4753,10 @@
       </c>
       <c r="M45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>28.366666666666667</v>
+        <v>31.833333333333332</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" s="8">
         <v>0.57999999999999996</v>
@@ -4786,10 +4771,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T45" s="14" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="U45" s="12" t="b">
         <v>0</v>
@@ -4798,18 +4783,18 @@
         <v>1</v>
       </c>
       <c r="W45" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X45" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y45" s="14" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -4824,16 +4809,16 @@
         <v>55867</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H46" s="14">
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J46" s="9">
         <v>43897</v>
@@ -4847,10 +4832,10 @@
       </c>
       <c r="M46" s="5">
         <f ca="1">(TODAY()-K46)/30</f>
-        <v>20.866666666666667</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" s="8">
         <v>0.44</v>
@@ -4865,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="U46" s="12" t="b">
         <v>1</v>
@@ -4877,18 +4862,18 @@
         <v>1</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y46" s="14" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -4903,16 +4888,16 @@
         <v>55010</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H47" s="14">
         <v>1</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J47" s="9">
         <v>43897</v>
@@ -4926,10 +4911,10 @@
       </c>
       <c r="M47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>26.633333333333333</v>
+        <v>30.1</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O47" s="6">
         <v>0.79</v>
@@ -4944,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T47" s="14" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="U47" s="11" t="b">
         <v>1</v>
@@ -4956,18 +4941,18 @@
         <v>1</v>
       </c>
       <c r="W47" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X47" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y47" s="14" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -4982,16 +4967,16 @@
         <v>55877</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H48" s="14">
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J48" s="9">
         <v>43901</v>
@@ -5005,10 +4990,10 @@
       </c>
       <c r="M48" s="5">
         <f ca="1">(TODAY()-K48)/30</f>
-        <v>20.8</v>
+        <v>24.266666666666666</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O48" s="8">
         <v>0</v>
@@ -5023,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="U48" s="12" t="b">
         <v>1</v>
@@ -5032,18 +5017,18 @@
         <v>1</v>
       </c>
       <c r="W48" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X48" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y48" s="14" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -5058,16 +5043,16 @@
         <v>55878</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H49" s="14">
         <v>2</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J49" s="9">
         <v>43901</v>
@@ -5081,10 +5066,10 @@
       </c>
       <c r="M49" s="10">
         <f ca="1">(TODAY()-K49)/30</f>
-        <v>20.8</v>
+        <v>24.266666666666666</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" s="6">
         <v>0.49</v>
@@ -5099,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="T49" s="14" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="U49" s="11" t="b">
         <v>0</v>
@@ -5111,13 +5096,13 @@
         <v>1</v>
       </c>
       <c r="W49" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X49" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y49" s="14" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.15">
@@ -5134,16 +5119,16 @@
         <v>54937</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H50" s="14">
         <v>3</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9">
@@ -5155,10 +5140,10 @@
       </c>
       <c r="M50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.5</v>
+        <v>30.966666666666665</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
@@ -5184,16 +5169,16 @@
         <v>54973</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H51" s="14">
         <v>3</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9">
@@ -5205,7 +5190,7 @@
       </c>
       <c r="M51" s="5">
         <f t="shared" ref="M51:M57" ca="1" si="5">(TODAY()-K51)/30</f>
-        <v>27.233333333333334</v>
+        <v>30.7</v>
       </c>
       <c r="N51" s="3"/>
       <c r="U51" s="14"/>
@@ -5227,16 +5212,16 @@
         <v>54909</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H52" s="14">
         <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9">
@@ -5248,10 +5233,10 @@
       </c>
       <c r="M52" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>28.066666666666666</v>
+        <v>31.533333333333335</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
@@ -5277,16 +5262,16 @@
         <v>54990</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H53" s="14">
         <v>2</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9">
@@ -5298,10 +5283,10 @@
       </c>
       <c r="M53" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>26.633333333333333</v>
+        <v>30.1</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
@@ -5327,16 +5312,16 @@
         <v>55842</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H54" s="14">
         <v>2</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9">
@@ -5348,10 +5333,10 @@
       </c>
       <c r="M54" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>21.366666666666667</v>
+        <v>24.833333333333332</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
@@ -5359,7 +5344,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="U54" s="12"/>
       <c r="V54" s="12" t="b">
@@ -5380,16 +5365,16 @@
         <v>55848</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H55" s="14">
         <v>2</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9">
@@ -5401,10 +5386,10 @@
       </c>
       <c r="M55" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>24.466666666666665</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
@@ -5430,16 +5415,16 @@
         <v>55846</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H56" s="14">
         <v>3</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9">
@@ -5451,10 +5436,10 @@
       </c>
       <c r="M56" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>21.033333333333335</v>
+        <v>24.5</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
@@ -5480,16 +5465,16 @@
         <v>54895</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H57" s="14">
         <v>2</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J57" s="15"/>
       <c r="K57" s="9">
@@ -5501,10 +5486,10 @@
       </c>
       <c r="M57" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>28.066666666666666</v>
+        <v>31.533333333333335</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
@@ -5512,7 +5497,7 @@
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="14" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="U57" s="12" t="b">
         <v>0</v>
@@ -5535,16 +5520,16 @@
         <v>54859</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H58" s="14">
         <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="15">
@@ -5556,13 +5541,13 @@
       </c>
       <c r="M58" s="5">
         <f t="shared" ref="M58:M63" ca="1" si="7">(TODAY()-K58)/30</f>
-        <v>28.033333333333335</v>
+        <v>31.5</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" s="14" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="U58" s="18" t="b">
         <v>0</v>
@@ -5585,16 +5570,16 @@
         <v>55883</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H59" s="14">
         <v>2</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9">
@@ -5602,10 +5587,10 @@
       </c>
       <c r="M59" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>20.666666666666668</v>
+        <v>24.133333333333333</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
@@ -5631,16 +5616,16 @@
         <v>55908</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H60" s="14">
         <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9">
@@ -5648,10 +5633,10 @@
       </c>
       <c r="M60" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>20.566666666666666</v>
+        <v>24.033333333333335</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
@@ -5677,16 +5662,16 @@
         <v>55912</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H61" s="14">
         <v>1</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9">
@@ -5694,10 +5679,10 @@
       </c>
       <c r="M61" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>20.466666666666665</v>
+        <v>23.933333333333334</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
@@ -5723,16 +5708,16 @@
         <v>55888</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H62" s="14">
         <v>2</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9">
@@ -5740,10 +5725,10 @@
       </c>
       <c r="M62" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>20.7</v>
+        <v>24.166666666666668</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
@@ -5769,26 +5754,26 @@
         <v>55914</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H63" s="14">
         <v>2</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K63" s="15">
         <v>43289</v>
       </c>
       <c r="M63" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>20.433333333333334</v>
+        <v>23.9</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
@@ -15857,55 +15842,55 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U50:V977 U48:V48">
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH(("no"),(T1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U50:V977 U48:V48">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH(("yes"),(T1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U50:V977 U48:V48">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>"check"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:E1048576 E46:E57 E59:E62 E1:E44">
-    <cfRule type="duplicateValues" dxfId="10" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",U1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Monolingual"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15918,9 +15903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22638F67-0CC5-F347-9284-531E1CC2CE69}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D59" sqref="D59"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15935,40 +15920,40 @@
   <sheetData>
     <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4">
         <v>42539</v>
       </c>
       <c r="D2" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>45.43333333333333</v>
+        <v>48.9</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -15979,22 +15964,22 @@
         <v/>
       </c>
       <c r="G2" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4">
         <v>43060</v>
       </c>
       <c r="D3" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>28.066666666666666</v>
+        <v>31.533333333333335</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16005,22 +15990,22 @@
         <v/>
       </c>
       <c r="G3" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
         <v>42752</v>
       </c>
       <c r="D4" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>38.333333333333336</v>
+        <v>41.8</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16031,22 +16016,22 @@
         <v/>
       </c>
       <c r="G4" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4">
         <v>42789</v>
       </c>
       <c r="D5" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>37.1</v>
+        <v>40.56666666666667</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16057,22 +16042,22 @@
         <v/>
       </c>
       <c r="G5" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
         <v>42864</v>
       </c>
       <c r="D6" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>34.6</v>
+        <v>38.06666666666667</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16083,22 +16068,22 @@
         <v/>
       </c>
       <c r="G6" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>42791</v>
       </c>
       <c r="D7" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>37.033333333333331</v>
+        <v>40.5</v>
       </c>
       <c r="E7" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16109,22 +16094,22 @@
         <v/>
       </c>
       <c r="G7" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>42851</v>
       </c>
       <c r="D8" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>35.033333333333331</v>
+        <v>38.5</v>
       </c>
       <c r="E8" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16135,22 +16120,22 @@
         <v/>
       </c>
       <c r="G8" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>42851</v>
       </c>
       <c r="D9" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>35.033333333333331</v>
+        <v>38.5</v>
       </c>
       <c r="E9" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16161,22 +16146,22 @@
         <v/>
       </c>
       <c r="G9" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <v>42824</v>
       </c>
       <c r="D10" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>35.93333333333333</v>
+        <v>39.4</v>
       </c>
       <c r="E10" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16187,22 +16172,22 @@
         <v/>
       </c>
       <c r="G10" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
         <v>42922</v>
       </c>
       <c r="D11" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>32.666666666666664</v>
+        <v>36.133333333333333</v>
       </c>
       <c r="E11" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16213,22 +16198,22 @@
         <v/>
       </c>
       <c r="G11" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
         <v>42912</v>
       </c>
       <c r="D12" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>33</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="E12" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16239,22 +16224,22 @@
         <v/>
       </c>
       <c r="G12" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <v>42856</v>
       </c>
       <c r="D13" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>34.866666666666667</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E13" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16265,22 +16250,22 @@
         <v/>
       </c>
       <c r="G13" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4">
         <v>42794</v>
       </c>
       <c r="D14" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>36.93333333333333</v>
+        <v>40.4</v>
       </c>
       <c r="E14" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16291,22 +16276,22 @@
         <v/>
       </c>
       <c r="G14" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4">
         <v>42831</v>
       </c>
       <c r="D15" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>35.700000000000003</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="E15" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16317,22 +16302,22 @@
         <v/>
       </c>
       <c r="G15" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="C16" s="9">
         <v>42853</v>
       </c>
       <c r="D16" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>34.966666666666669</v>
+        <v>38.43333333333333</v>
       </c>
       <c r="E16" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16343,22 +16328,22 @@
         <v/>
       </c>
       <c r="G16" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9">
         <v>42852</v>
       </c>
       <c r="D17" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>35</v>
+        <v>38.466666666666669</v>
       </c>
       <c r="E17" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16369,22 +16354,22 @@
         <v/>
       </c>
       <c r="G17" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9">
         <v>42880</v>
       </c>
       <c r="D18" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>34.06666666666667</v>
+        <v>37.533333333333331</v>
       </c>
       <c r="E18" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16395,22 +16380,22 @@
         <v/>
       </c>
       <c r="G18" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9">
         <v>42936</v>
       </c>
       <c r="D19" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>32.200000000000003</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="E19" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16421,22 +16406,22 @@
         <v/>
       </c>
       <c r="G19" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="15">
         <v>42899</v>
       </c>
       <c r="D20" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>33.43333333333333</v>
+        <v>36.9</v>
       </c>
       <c r="E20" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16447,22 +16432,22 @@
         <v/>
       </c>
       <c r="G20" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="9">
         <v>42982</v>
       </c>
       <c r="D21" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>30.666666666666668</v>
+        <v>34.133333333333333</v>
       </c>
       <c r="E21" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16473,22 +16458,22 @@
         <v/>
       </c>
       <c r="G21" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="9">
         <v>42937</v>
       </c>
       <c r="D22" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>32.166666666666664</v>
+        <v>35.633333333333333</v>
       </c>
       <c r="E22" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16499,22 +16484,22 @@
         <v/>
       </c>
       <c r="G22" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="9">
         <v>42702</v>
       </c>
       <c r="D23" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>40</v>
+        <v>43.466666666666669</v>
       </c>
       <c r="E23" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16525,22 +16510,22 @@
         <v/>
       </c>
       <c r="G23" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="9">
         <v>42983</v>
       </c>
       <c r="D24" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>30.633333333333333</v>
+        <v>34.1</v>
       </c>
       <c r="E24" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16551,22 +16536,22 @@
         <v/>
       </c>
       <c r="G24" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="9">
         <v>43074</v>
       </c>
       <c r="D25" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>27.6</v>
+        <v>31.066666666666666</v>
       </c>
       <c r="E25" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16577,22 +16562,22 @@
         <v/>
       </c>
       <c r="G25" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="9">
         <v>42899</v>
       </c>
       <c r="D26" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>33.43333333333333</v>
+        <v>36.9</v>
       </c>
       <c r="E26" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16603,22 +16588,22 @@
         <v/>
       </c>
       <c r="G26" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="9">
         <v>42975</v>
       </c>
       <c r="D27" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>30.9</v>
+        <v>34.366666666666667</v>
       </c>
       <c r="E27" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16629,22 +16614,22 @@
         <v/>
       </c>
       <c r="G27" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="9">
         <v>42951</v>
       </c>
       <c r="D28" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.7</v>
+        <v>35.166666666666664</v>
       </c>
       <c r="E28" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16655,22 +16640,22 @@
         <v/>
       </c>
       <c r="G28" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="9">
         <v>42960</v>
       </c>
       <c r="D29" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.4</v>
+        <v>34.866666666666667</v>
       </c>
       <c r="E29" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16681,22 +16666,22 @@
         <v/>
       </c>
       <c r="G29" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="9">
         <v>43010</v>
       </c>
       <c r="D30" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>29.733333333333334</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E30" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16707,22 +16692,22 @@
         <v/>
       </c>
       <c r="G30" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="9">
         <v>43031</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>29.033333333333335</v>
+        <v>32.5</v>
       </c>
       <c r="E31" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16733,22 +16718,22 @@
         <v/>
       </c>
       <c r="G31" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="9">
         <v>43022</v>
       </c>
       <c r="D32" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>29.333333333333332</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E32" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16759,22 +16744,22 @@
         <v/>
       </c>
       <c r="G32" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="9">
         <v>43013</v>
       </c>
       <c r="D33" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>29.633333333333333</v>
+        <v>33.1</v>
       </c>
       <c r="E33" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16785,22 +16770,22 @@
         <v/>
       </c>
       <c r="G33" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="15">
         <v>43032</v>
       </c>
       <c r="D34" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>29</v>
+        <v>32.466666666666669</v>
       </c>
       <c r="E34" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16811,22 +16796,22 @@
         <v/>
       </c>
       <c r="G34" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="9">
         <v>43028</v>
       </c>
       <c r="D35" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>29.133333333333333</v>
+        <v>32.6</v>
       </c>
       <c r="E35" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16837,22 +16822,22 @@
         <v/>
       </c>
       <c r="G35" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="15">
         <v>43052</v>
       </c>
       <c r="D36" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>28.333333333333332</v>
+        <v>31.8</v>
       </c>
       <c r="E36" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16863,22 +16848,22 @@
         <v/>
       </c>
       <c r="G36" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="9">
         <v>43066</v>
       </c>
       <c r="D37" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>27.866666666666667</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="E37" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16889,48 +16874,48 @@
         <v/>
       </c>
       <c r="G37" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="9">
         <v>43159</v>
       </c>
       <c r="D38" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>24.766666666666666</v>
+        <v>28.233333333333334</v>
       </c>
       <c r="E38" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
         <v/>
       </c>
       <c r="F38" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G38" t="str">
         <f ca="1">IF(AND(27&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;31), "pending", "")</f>
-        <v/>
+        <v>pending</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="9">
         <v>43050</v>
       </c>
       <c r="D39" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>28.4</v>
+        <v>31.866666666666667</v>
       </c>
       <c r="E39" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16941,22 +16926,22 @@
         <v/>
       </c>
       <c r="G39" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="15">
         <v>43042</v>
       </c>
       <c r="D40" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>28.666666666666668</v>
+        <v>32.133333333333333</v>
       </c>
       <c r="E40" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16967,22 +16952,22 @@
         <v/>
       </c>
       <c r="G40" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="9">
         <v>43061</v>
       </c>
       <c r="D41" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>28.033333333333335</v>
+        <v>31.5</v>
       </c>
       <c r="E41" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16993,22 +16978,22 @@
         <v/>
       </c>
       <c r="G41" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="9">
         <v>43064</v>
       </c>
       <c r="D42" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>27.933333333333334</v>
+        <v>31.4</v>
       </c>
       <c r="E42" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17019,22 +17004,22 @@
         <v/>
       </c>
       <c r="G42" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="9">
         <v>43088</v>
       </c>
       <c r="D43" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>27.133333333333333</v>
+        <v>30.6</v>
       </c>
       <c r="E43" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17045,22 +17030,22 @@
         <v/>
       </c>
       <c r="G43" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="9">
         <v>43083</v>
       </c>
       <c r="D44" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>27.3</v>
+        <v>30.766666666666666</v>
       </c>
       <c r="E44" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17071,22 +17056,22 @@
         <v/>
       </c>
       <c r="G44" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="15">
         <v>43051</v>
       </c>
       <c r="D45" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>28.366666666666667</v>
+        <v>31.833333333333332</v>
       </c>
       <c r="E45" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17097,29 +17082,29 @@
         <v/>
       </c>
       <c r="G45" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="9">
         <v>43276</v>
       </c>
       <c r="D46" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>20.866666666666667</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F46" t="str">
         <f ca="1">IF(AND(23&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;26), "pending", "")</f>
-        <v/>
+        <v>pending</v>
       </c>
       <c r="G46" t="str">
         <f ca="1">IF(27&lt;=Table1[[#This Row],[AgeToday]]&lt;31, "pending", "")</f>
@@ -17128,17 +17113,17 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="9">
         <v>43103</v>
       </c>
       <c r="D47" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>26.633333333333333</v>
+        <v>30.1</v>
       </c>
       <c r="E47" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17149,68 +17134,68 @@
         <v/>
       </c>
       <c r="G47" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" s="9">
         <v>43278</v>
       </c>
       <c r="D48" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>20.8</v>
+        <v>24.266666666666666</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F48" t="str">
         <f ca="1">IF(AND(23&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;26), "pending", "")</f>
-        <v/>
+        <v>pending</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="9">
         <v>43278</v>
       </c>
       <c r="D49" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>20.8</v>
+        <v>24.266666666666666</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F49" t="str">
         <f ca="1">IF(AND(23&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;26), "pending", "")</f>
-        <v/>
+        <v>pending</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:G49">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="participated">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="participated">
       <formula>NOT(ISERROR(SEARCH("participated",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="scheduled">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="scheduled">
       <formula>NOT(ISERROR(SEARCH("scheduled",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="pending">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="pending">
       <formula>NOT(ISERROR(SEARCH("pending",E2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/Participant data/data_participants.xlsx
+++ b/Data/Participant data/data_participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GonzaloGGC/projects/CognatePriming/Data/Participant data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB65CC1A-55CA-4A4C-8F31-118F32409383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5CEB14-DF84-5548-8C82-9FA5B26534DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="-14400" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="-13940" windowWidth="25600" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="275">
   <si>
     <t>cognatepriming1</t>
   </si>
@@ -607,6 +607,255 @@
   </si>
   <si>
     <t>test_language</t>
+  </si>
+  <si>
+    <t>30433a</t>
+  </si>
+  <si>
+    <t>oxf1</t>
+  </si>
+  <si>
+    <t>oxf2</t>
+  </si>
+  <si>
+    <t>oxf3</t>
+  </si>
+  <si>
+    <t>oxf4</t>
+  </si>
+  <si>
+    <t>oxf5</t>
+  </si>
+  <si>
+    <t>oxf6</t>
+  </si>
+  <si>
+    <t>oxf7</t>
+  </si>
+  <si>
+    <t>oxf8</t>
+  </si>
+  <si>
+    <t>oxf9</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>british</t>
+  </si>
+  <si>
+    <t>Difficulty calibrating at start, tendency to lean head towards right</t>
+  </si>
+  <si>
+    <t>Fidgeted occasionally but mostly focused. Got off chair before last 2 trials of TaxTheme, readjusted</t>
+  </si>
+  <si>
+    <t>Very calm and focused</t>
+  </si>
+  <si>
+    <t>Did not start task</t>
+  </si>
+  <si>
+    <t>Fidgety for TaxTheme, tried to touch screen / eyetracker</t>
+  </si>
+  <si>
+    <t>Mostly focused, would point at picture. Dominantly Spanish speaking family</t>
+  </si>
+  <si>
+    <t>Session went well.</t>
+  </si>
+  <si>
+    <t>Very focused, almost perfect. Very excited during taxtheme</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>24507a</t>
+  </si>
+  <si>
+    <t>24507b</t>
+  </si>
+  <si>
+    <t>oxf11</t>
+  </si>
+  <si>
+    <t>oxf12</t>
+  </si>
+  <si>
+    <t>oxf13</t>
+  </si>
+  <si>
+    <t>oxf14</t>
+  </si>
+  <si>
+    <t>oxf15</t>
+  </si>
+  <si>
+    <t>oxf16</t>
+  </si>
+  <si>
+    <t>oxf17</t>
+  </si>
+  <si>
+    <t>oxf18</t>
+  </si>
+  <si>
+    <t>oxf19</t>
+  </si>
+  <si>
+    <t>oxf20</t>
+  </si>
+  <si>
+    <t>Good, turning towards her mun during a few trials.</t>
+  </si>
+  <si>
+    <t>V good, turning her head back during a few trials</t>
+  </si>
+  <si>
+    <t>Good, a bit eager to go back to playing, but engaged with the task</t>
+  </si>
+  <si>
+    <t>Good in the beginning, then quite fidgety; unhappy towards the end</t>
+  </si>
+  <si>
+    <t>Unhappy in the beginning, didn't want to sit; a bit distracted during the studies (especially during calibrations), but overall good</t>
+  </si>
+  <si>
+    <t>V good for the 1st one, getting distracted and restless during the last couple of trials and for IoR</t>
+  </si>
+  <si>
+    <t>No data, no calibration, participant did not want to sit still</t>
+  </si>
+  <si>
+    <t>No data - didn't want to sit</t>
+  </si>
+  <si>
+    <t>Sort of good - looking, but fidgety and trying to get off</t>
+  </si>
+  <si>
+    <t>Did not attend to many trials during cognate priming, aborted the task. During quite a few trials in TaxTheme, was cuddling mother &amp; eyes were not very close to screen.</t>
+  </si>
+  <si>
+    <t>oxf21</t>
+  </si>
+  <si>
+    <t>oxf22</t>
+  </si>
+  <si>
+    <t>oxf23</t>
+  </si>
+  <si>
+    <t>oxf24</t>
+  </si>
+  <si>
+    <t>oxf25</t>
+  </si>
+  <si>
+    <t>oxf26</t>
+  </si>
+  <si>
+    <t>oxf27</t>
+  </si>
+  <si>
+    <t>oxf28</t>
+  </si>
+  <si>
+    <t>oxf29</t>
+  </si>
+  <si>
+    <t>oxf30</t>
+  </si>
+  <si>
+    <t>oxf31</t>
+  </si>
+  <si>
+    <t>oxf33</t>
+  </si>
+  <si>
+    <t>oxf34</t>
+  </si>
+  <si>
+    <t>oxf35</t>
+  </si>
+  <si>
+    <t>oxf36</t>
+  </si>
+  <si>
+    <t>oxf37</t>
+  </si>
+  <si>
+    <t>oxf38</t>
+  </si>
+  <si>
+    <t>oxf39</t>
+  </si>
+  <si>
+    <t>oxf40</t>
+  </si>
+  <si>
+    <t>oxf41</t>
+  </si>
+  <si>
+    <t>oxf42</t>
+  </si>
+  <si>
+    <t>oxf43</t>
+  </si>
+  <si>
+    <t>Good, a bit fidgety from time to time</t>
+  </si>
+  <si>
+    <t>Good, turning around in between trials during the first few trials; rubbing her left eye towards the end</t>
+  </si>
+  <si>
+    <t>V good, a tiny bit distracted towards the end for Cognates and a bit fidgety towards the end for IoR</t>
+  </si>
+  <si>
+    <t>V good</t>
+  </si>
+  <si>
+    <t>Good, towards the end looking away at the beginning of the trial; i</t>
+  </si>
+  <si>
+    <t>Crying in between trials for Cognates, but v focus, looking at the pictures; a bit better for IoR</t>
+  </si>
+  <si>
+    <t>Good, leaning towards the screen during a few trials</t>
+  </si>
+  <si>
+    <t>Did not want to sit on chair</t>
+  </si>
+  <si>
+    <t>V good, quite chatty, naming pictures.</t>
+  </si>
+  <si>
+    <t>Looked, but unhappy, had a cold</t>
+  </si>
+  <si>
+    <t>Holding tiger toy, but mostly held it close. Sometimes sucked on thumb, especially towards end of priming and IOR</t>
+  </si>
+  <si>
+    <t>V good, last 6 trials started saying he wants down and got  bit distracted and fidgety</t>
+  </si>
+  <si>
+    <t>V good (at some point may have been leaning back a bit)</t>
+  </si>
+  <si>
+    <t>Fidgety, but paid attention to the screen.</t>
+  </si>
+  <si>
+    <t>Good, fidgety during some trials</t>
+  </si>
+  <si>
+    <t>Held a glove throughout session. Fidgeted with it but still remained attention on screen.</t>
+  </si>
+  <si>
+    <t>Good! Turned his head around or looked down during a couple of trials. Got a bit restless towards the end.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -710,112 +959,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="2"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -969,6 +1125,107 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="2"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -991,13 +1248,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B806190-7D35-294B-BD17-947BC089A41E}" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B806190-7D35-294B-BD17-947BC089A41E}" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:G49" xr:uid="{841E7AFE-ED4E-4947-8D5A-3F6D74130880}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7CD581B8-20B0-134F-80D6-F2192740E4ED}" name="Participant" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{70F7CEA6-A1F5-C740-A6D0-C32F4555DDF0}" name="Location" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3676706C-00EE-6F48-8031-43EAFCC65B23}" name="DateBirth" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{DD4094E8-F896-D64C-951E-5E38685DF38A}" name="AgeToday" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{7CD581B8-20B0-134F-80D6-F2192740E4ED}" name="Participant" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{70F7CEA6-A1F5-C740-A6D0-C32F4555DDF0}" name="Location" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{3676706C-00EE-6F48-8031-43EAFCC65B23}" name="DateBirth" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{DD4094E8-F896-D64C-951E-5E38685DF38A}" name="AgeToday" dataDxfId="16">
       <calculatedColumnFormula>(TODAY()-Table1[[#This Row],[DateBirth]])/30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{209D5AE7-6EF2-684D-A140-6C485279ED6E}" name="Age20">
@@ -1211,20 +1468,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD977"/>
+  <dimension ref="A1:AD975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S50" sqref="S50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="27" customWidth="1"/>
     <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" style="14" bestFit="1" customWidth="1"/>
@@ -1244,7 +1501,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1256,7 +1513,7 @@
       <c r="D1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="25" t="s">
         <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1326,7 +1583,7 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1338,7 +1595,7 @@
       <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="26">
         <v>56927</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1365,7 +1622,7 @@
       </c>
       <c r="M2" s="5">
         <f t="shared" ref="M2:M33" ca="1" si="1">(TODAY()-K2)/30</f>
-        <v>48.9</v>
+        <v>48.93333333333333</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>1</v>
@@ -1405,7 +1662,7 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
@@ -1417,7 +1674,7 @@
       <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="26">
         <v>54904</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1444,7 +1701,7 @@
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>31.533333333333335</v>
+        <v>31.566666666666666</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>4</v>
@@ -1484,7 +1741,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
@@ -1496,7 +1753,7 @@
       <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="26">
         <v>53292</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1523,7 +1780,7 @@
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>41.8</v>
+        <v>41.833333333333336</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>4</v>
@@ -1563,7 +1820,7 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -1575,7 +1832,7 @@
       <c r="D5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="26">
         <v>51273</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1602,7 +1859,7 @@
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>40.56666666666667</v>
+        <v>40.6</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>4</v>
@@ -1642,7 +1899,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
@@ -1654,7 +1911,7 @@
       <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="26">
         <v>54563</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1681,7 +1938,7 @@
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>38.06666666666667</v>
+        <v>38.1</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>1</v>
@@ -1721,7 +1978,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
@@ -1733,7 +1990,7 @@
       <c r="D7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="26">
         <v>57148</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1760,7 +2017,7 @@
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>40.5</v>
+        <v>40.533333333333331</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>1</v>
@@ -1800,7 +2057,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
@@ -1812,7 +2069,7 @@
       <c r="D8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="26">
         <v>53655</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1839,7 +2096,7 @@
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>38.5</v>
+        <v>38.533333333333331</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -1879,7 +2136,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3">
@@ -1891,7 +2148,7 @@
       <c r="D9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="26">
         <v>54202</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1918,7 +2175,7 @@
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>38.5</v>
+        <v>38.533333333333331</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>1</v>
@@ -1958,7 +2215,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3">
@@ -1970,7 +2227,7 @@
       <c r="D10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="26">
         <v>52360</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1997,7 +2254,7 @@
       </c>
       <c r="M10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>39.4</v>
+        <v>39.43333333333333</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -2037,7 +2294,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3">
@@ -2049,7 +2306,7 @@
       <c r="D11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="26">
         <v>54322</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2076,7 +2333,7 @@
       </c>
       <c r="M11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.133333333333333</v>
+        <v>36.166666666666664</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>1</v>
@@ -2116,7 +2373,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3">
@@ -2128,7 +2385,7 @@
       <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="26">
         <v>54286</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2155,7 +2412,7 @@
       </c>
       <c r="M12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.466666666666669</v>
+        <v>36.5</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -2195,7 +2452,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3">
@@ -2207,7 +2464,7 @@
       <c r="D13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="26">
         <v>54169</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -2234,7 +2491,7 @@
       </c>
       <c r="M13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>38.333333333333336</v>
+        <v>38.366666666666667</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>1</v>
@@ -2274,7 +2531,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3">
@@ -2286,7 +2543,7 @@
       <c r="D14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="26">
         <v>51407</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -2313,7 +2570,7 @@
       </c>
       <c r="M14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>40.4</v>
+        <v>40.43333333333333</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>1</v>
@@ -2353,7 +2610,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3">
@@ -2365,7 +2622,7 @@
       <c r="D15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="26">
         <v>52554</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2392,7 +2649,7 @@
       </c>
       <c r="M15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>39.166666666666664</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>1</v>
@@ -2429,7 +2686,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3">
@@ -2441,7 +2698,7 @@
       <c r="D16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="26">
         <v>52823</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2468,7 +2725,7 @@
       </c>
       <c r="M16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>38.43333333333333</v>
+        <v>38.466666666666669</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>4</v>
@@ -2508,7 +2765,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3">
@@ -2520,7 +2777,7 @@
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="26">
         <v>53656</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2547,7 +2804,7 @@
       </c>
       <c r="M17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>38.466666666666669</v>
+        <v>38.5</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>1</v>
@@ -2587,7 +2844,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3">
@@ -2599,7 +2856,7 @@
       <c r="D18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="26">
         <v>54160</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2626,7 +2883,7 @@
       </c>
       <c r="M18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>37.533333333333331</v>
+        <v>37.56666666666667</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
@@ -2666,7 +2923,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="3">
@@ -2678,7 +2935,7 @@
       <c r="D19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="26">
         <v>54377</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2705,7 +2962,7 @@
       </c>
       <c r="M19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.666666666666664</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>1</v>
@@ -2745,7 +3002,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="3">
@@ -2757,7 +3014,7 @@
       <c r="D20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="27">
         <v>54731</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2784,7 +3041,7 @@
       </c>
       <c r="M20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.9</v>
+        <v>36.93333333333333</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>1</v>
@@ -2824,7 +3081,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="3">
@@ -2836,7 +3093,7 @@
       <c r="D21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="27">
         <v>54538</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2863,7 +3120,7 @@
       </c>
       <c r="M21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.133333333333333</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -2903,7 +3160,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="3">
@@ -2915,7 +3172,7 @@
       <c r="D22" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="27">
         <v>54379</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2942,7 +3199,7 @@
       </c>
       <c r="M22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.633333333333333</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -2982,7 +3239,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="3">
@@ -2994,7 +3251,7 @@
       <c r="D23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="27">
         <v>50010</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -3021,7 +3278,7 @@
       </c>
       <c r="M23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43.466666666666669</v>
+        <v>43.5</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
@@ -3061,7 +3318,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="3">
@@ -3073,7 +3330,7 @@
       <c r="D24" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="27">
         <v>54548</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3100,7 +3357,7 @@
       </c>
       <c r="M24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.1</v>
+        <v>34.133333333333333</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>1</v>
@@ -3140,7 +3397,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="3">
@@ -3152,7 +3409,7 @@
       <c r="D25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="27">
         <v>55155</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -3179,7 +3436,7 @@
       </c>
       <c r="M25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>31.066666666666666</v>
+        <v>31.1</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>1</v>
@@ -3219,7 +3476,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="3">
@@ -3231,7 +3488,7 @@
       <c r="D26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="27">
         <v>54250</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -3258,7 +3515,7 @@
       </c>
       <c r="M26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.9</v>
+        <v>36.93333333333333</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>1</v>
@@ -3298,7 +3555,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="3">
@@ -3310,7 +3567,7 @@
       <c r="D27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="27">
         <v>54487</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -3337,7 +3594,7 @@
       </c>
       <c r="M27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.366666666666667</v>
+        <v>34.4</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>1</v>
@@ -3377,7 +3634,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="3">
@@ -3389,7 +3646,7 @@
       <c r="D28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="27">
         <v>54840</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -3416,7 +3673,7 @@
       </c>
       <c r="M28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.166666666666664</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>1</v>
@@ -3456,7 +3713,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="27" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="3">
@@ -3468,7 +3725,7 @@
       <c r="D29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="27">
         <v>54469</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -3495,7 +3752,7 @@
       </c>
       <c r="M29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.866666666666667</v>
+        <v>34.9</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -3535,7 +3792,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="3">
@@ -3547,7 +3804,7 @@
       <c r="D30" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="27">
         <v>54639</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -3574,7 +3831,7 @@
       </c>
       <c r="M30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.200000000000003</v>
+        <v>33.233333333333334</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>1</v>
@@ -3614,7 +3871,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="3">
@@ -3626,7 +3883,7 @@
       <c r="D31" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="27">
         <v>54705</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -3653,7 +3910,7 @@
       </c>
       <c r="M31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.5</v>
+        <v>32.533333333333331</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>4</v>
@@ -3693,7 +3950,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="14">
@@ -3705,7 +3962,7 @@
       <c r="D32" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="27">
         <v>54680</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -3732,7 +3989,7 @@
       </c>
       <c r="M32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.799999999999997</v>
+        <v>32.833333333333336</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
@@ -3772,7 +4029,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="3">
@@ -3784,7 +4041,7 @@
       <c r="D33" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="27">
         <v>55537</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -3811,7 +4068,7 @@
       </c>
       <c r="M33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.1</v>
+        <v>33.133333333333333</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>1</v>
@@ -3851,7 +4108,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="3">
@@ -3863,7 +4120,7 @@
       <c r="D34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="27">
         <v>54717</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -3890,7 +4147,7 @@
       </c>
       <c r="M34" s="5">
         <f t="shared" ref="M34:M50" ca="1" si="3">(TODAY()-K34)/30</f>
-        <v>32.466666666666669</v>
+        <v>32.5</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>4</v>
@@ -3930,7 +4187,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="3">
@@ -3942,7 +4199,7 @@
       <c r="D35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="27">
         <v>54709</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -3969,7 +4226,7 @@
       </c>
       <c r="M35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32.6</v>
+        <v>32.633333333333333</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
@@ -4009,7 +4266,7 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="3">
@@ -4021,7 +4278,7 @@
       <c r="D36" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="27">
         <v>55108</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -4048,7 +4305,7 @@
       </c>
       <c r="M36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31.8</v>
+        <v>31.833333333333332</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>1</v>
@@ -4088,7 +4345,7 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B37" s="3">
@@ -4100,7 +4357,7 @@
       <c r="D37" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="27">
         <v>54875</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -4127,7 +4384,7 @@
       </c>
       <c r="M37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31.333333333333332</v>
+        <v>31.366666666666667</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>4</v>
@@ -4164,7 +4421,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="3">
@@ -4176,7 +4433,7 @@
       <c r="D38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="27">
         <v>58059</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -4203,7 +4460,7 @@
       </c>
       <c r="M38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>28.233333333333334</v>
+        <v>28.266666666666666</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>4</v>
@@ -4240,7 +4497,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B39" s="3">
@@ -4252,7 +4509,7 @@
       <c r="D39" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="27">
         <v>54816</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -4279,7 +4536,7 @@
       </c>
       <c r="M39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31.866666666666667</v>
+        <v>31.9</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>1</v>
@@ -4319,7 +4576,7 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="27" t="s">
         <v>123</v>
       </c>
       <c r="B40" s="3">
@@ -4331,7 +4588,7 @@
       <c r="D40" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="27">
         <v>54788</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -4358,7 +4615,7 @@
       </c>
       <c r="M40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32.133333333333333</v>
+        <v>32.166666666666664</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>4</v>
@@ -4398,7 +4655,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B41" s="3">
@@ -4410,7 +4667,7 @@
       <c r="D41" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="27">
         <v>54866</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -4437,7 +4694,7 @@
       </c>
       <c r="M41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31.5</v>
+        <v>31.533333333333335</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>1</v>
@@ -4477,7 +4734,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B42" s="3">
@@ -4489,7 +4746,7 @@
       <c r="D42" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="27">
         <v>54912</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -4516,7 +4773,7 @@
       </c>
       <c r="M42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31.4</v>
+        <v>31.433333333333334</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>1</v>
@@ -4556,7 +4813,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B43" s="3">
@@ -4568,7 +4825,7 @@
       <c r="D43" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="27">
         <v>54993</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -4595,7 +4852,7 @@
       </c>
       <c r="M43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>30.6</v>
+        <v>30.633333333333333</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -4635,7 +4892,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B44" s="3">
@@ -4647,7 +4904,7 @@
       <c r="D44" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="27">
         <v>54960</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -4674,7 +4931,7 @@
       </c>
       <c r="M44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>30.766666666666666</v>
+        <v>30.8</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -4714,7 +4971,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="27" t="s">
         <v>141</v>
       </c>
       <c r="B45" s="3">
@@ -4726,7 +4983,7 @@
       <c r="D45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="27">
         <v>54815</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -4753,7 +5010,7 @@
       </c>
       <c r="M45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31.833333333333332</v>
+        <v>31.866666666666667</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>1</v>
@@ -4793,7 +5050,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="27" t="s">
         <v>145</v>
       </c>
       <c r="B46" s="3">
@@ -4805,7 +5062,7 @@
       <c r="D46" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="27">
         <v>55867</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -4832,7 +5089,7 @@
       </c>
       <c r="M46" s="5">
         <f ca="1">(TODAY()-K46)/30</f>
-        <v>24.333333333333332</v>
+        <v>24.366666666666667</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>1</v>
@@ -4872,7 +5129,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="27" t="s">
         <v>147</v>
       </c>
       <c r="B47" s="3">
@@ -4884,7 +5141,7 @@
       <c r="D47" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="27">
         <v>55010</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -4911,7 +5168,7 @@
       </c>
       <c r="M47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>30.1</v>
+        <v>30.133333333333333</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -4951,7 +5208,7 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="27" t="s">
         <v>149</v>
       </c>
       <c r="B48" s="3">
@@ -4963,7 +5220,7 @@
       <c r="D48" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="27">
         <v>55877</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -4990,7 +5247,7 @@
       </c>
       <c r="M48" s="5">
         <f ca="1">(TODAY()-K48)/30</f>
-        <v>24.266666666666666</v>
+        <v>24.3</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -5027,7 +5284,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="27" t="s">
         <v>150</v>
       </c>
       <c r="B49" s="3">
@@ -5039,7 +5296,7 @@
       <c r="D49" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="27">
         <v>55878</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -5066,7 +5323,7 @@
       </c>
       <c r="M49" s="10">
         <f ca="1">(TODAY()-K49)/30</f>
-        <v>24.266666666666666</v>
+        <v>24.3</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>1</v>
@@ -5115,7 +5372,7 @@
       <c r="D50" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="27">
         <v>54937</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -5140,7 +5397,7 @@
       </c>
       <c r="M50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>30.966666666666665</v>
+        <v>31</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>1</v>
@@ -5165,7 +5422,7 @@
       <c r="D51" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="27">
         <v>54973</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -5190,7 +5447,7 @@
       </c>
       <c r="M51" s="5">
         <f t="shared" ref="M51:M57" ca="1" si="5">(TODAY()-K51)/30</f>
-        <v>30.7</v>
+        <v>30.733333333333334</v>
       </c>
       <c r="N51" s="3"/>
       <c r="U51" s="14"/>
@@ -5208,7 +5465,7 @@
       <c r="D52" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="30">
         <v>54909</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -5233,7 +5490,7 @@
       </c>
       <c r="M52" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>31.533333333333335</v>
+        <v>31.566666666666666</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>1</v>
@@ -5258,7 +5515,7 @@
       <c r="D53" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="27">
         <v>54990</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -5283,7 +5540,7 @@
       </c>
       <c r="M53" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>30.1</v>
+        <v>30.133333333333333</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>4</v>
@@ -5308,7 +5565,7 @@
       <c r="D54" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="27">
         <v>55842</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -5333,7 +5590,7 @@
       </c>
       <c r="M54" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>24.833333333333332</v>
+        <v>24.866666666666667</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>1</v>
@@ -5361,7 +5618,7 @@
       <c r="D55" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="27">
         <v>55848</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -5386,7 +5643,7 @@
       </c>
       <c r="M55" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>24.466666666666665</v>
+        <v>24.5</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>1</v>
@@ -5411,7 +5668,7 @@
       <c r="D56" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="27">
         <v>55846</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -5436,7 +5693,7 @@
       </c>
       <c r="M56" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>24.5</v>
+        <v>24.533333333333335</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>1</v>
@@ -5461,7 +5718,7 @@
       <c r="D57" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="27">
         <v>54895</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -5486,7 +5743,7 @@
       </c>
       <c r="M57" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>31.533333333333335</v>
+        <v>31.566666666666666</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>1</v>
@@ -5516,7 +5773,7 @@
       <c r="D58" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="27">
         <v>54859</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -5536,12 +5793,12 @@
         <v>43061</v>
       </c>
       <c r="L58" s="17">
-        <f t="shared" ref="L58" si="6">(J58-K58)/30</f>
+        <f t="shared" ref="L58:L82" si="6">(J58-K58)/30</f>
         <v>-1435.3666666666666</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" ref="M58:M63" ca="1" si="7">(TODAY()-K58)/30</f>
-        <v>31.5</v>
+        <f t="shared" ref="M58:M82" ca="1" si="7">(TODAY()-K58)/30</f>
+        <v>31.533333333333335</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -5566,7 +5823,7 @@
       <c r="D59" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="27">
         <v>55883</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -5585,9 +5842,13 @@
       <c r="K59" s="9">
         <v>43282</v>
       </c>
+      <c r="L59" s="17">
+        <f t="shared" si="6"/>
+        <v>-1442.7333333333333</v>
+      </c>
       <c r="M59" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>24.133333333333333</v>
+        <v>24.166666666666668</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>1</v>
@@ -5612,7 +5873,7 @@
       <c r="D60" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="27">
         <v>55908</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -5631,9 +5892,13 @@
       <c r="K60" s="9">
         <v>43285</v>
       </c>
+      <c r="L60" s="17">
+        <f t="shared" si="6"/>
+        <v>-1442.8333333333333</v>
+      </c>
       <c r="M60" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>24.033333333333335</v>
+        <v>24.066666666666666</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
@@ -5658,7 +5923,7 @@
       <c r="D61" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="27">
         <v>55912</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -5677,9 +5942,13 @@
       <c r="K61" s="9">
         <v>43288</v>
       </c>
+      <c r="L61" s="17">
+        <f t="shared" si="6"/>
+        <v>-1442.9333333333334</v>
+      </c>
       <c r="M61" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>23.933333333333334</v>
+        <v>23.966666666666665</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>1</v>
@@ -5704,7 +5973,7 @@
       <c r="D62" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="27">
         <v>55888</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -5723,9 +5992,13 @@
       <c r="K62" s="9">
         <v>43281</v>
       </c>
+      <c r="L62" s="17">
+        <f t="shared" si="6"/>
+        <v>-1442.7</v>
+      </c>
       <c r="M62" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>24.166666666666668</v>
+        <v>24.2</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>1</v>
@@ -5750,7 +6023,7 @@
       <c r="D63" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="27">
         <v>55914</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -5768,9 +6041,13 @@
       <c r="K63" s="15">
         <v>43289</v>
       </c>
+      <c r="L63" s="17">
+        <f t="shared" si="6"/>
+        <v>-1442.9666666666667</v>
+      </c>
       <c r="M63" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>23.9</v>
+        <v>23.933333333333334</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>4</v>
@@ -5786,457 +6063,2626 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+      <c r="A64" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>30</v>
+      </c>
+      <c r="D64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="28">
+        <v>270034</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H64" s="14">
+        <v>2</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J64" s="29">
+        <v>43812</v>
+      </c>
+      <c r="K64" s="29">
+        <v>42976</v>
+      </c>
+      <c r="L64" s="17">
+        <f t="shared" si="6"/>
+        <v>27.866666666666667</v>
+      </c>
+      <c r="M64" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>34.366666666666667</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
+      <c r="Q64" s="8">
+        <v>1</v>
+      </c>
       <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-    </row>
-    <row r="65" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="S64" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T64" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="U64" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V64" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A65" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>30</v>
+      </c>
+      <c r="D65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="28">
+        <v>270035</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="14">
+        <v>3</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J65" s="29">
+        <v>43812</v>
+      </c>
+      <c r="K65" s="29">
+        <v>43006</v>
+      </c>
+      <c r="L65" s="17">
+        <f t="shared" si="6"/>
+        <v>26.866666666666667</v>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>33.366666666666667</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
+      <c r="Q65" s="8">
+        <v>1</v>
+      </c>
       <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-    </row>
-    <row r="66" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="S65" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T65" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="U65" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A66" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3">
+        <v>30</v>
+      </c>
+      <c r="D66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="28">
+        <v>270036</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H66" s="14">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J66" s="29">
+        <v>43816</v>
+      </c>
+      <c r="K66" s="29">
+        <v>43013</v>
+      </c>
+      <c r="L66" s="17">
+        <f t="shared" si="6"/>
+        <v>26.766666666666666</v>
+      </c>
+      <c r="M66" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>33.133333333333333</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-    </row>
-    <row r="67" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="S66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T66" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="U66" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A67" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3">
+        <v>30</v>
+      </c>
+      <c r="D67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="28">
+        <v>27033</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H67" s="14">
+        <v>2</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J67" s="29">
+        <v>43810</v>
+      </c>
+      <c r="K67" s="29">
+        <v>43013</v>
+      </c>
+      <c r="L67" s="17">
+        <f t="shared" si="6"/>
+        <v>26.566666666666666</v>
+      </c>
+      <c r="M67" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>33.133333333333333</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
+      <c r="Q67" s="8">
+        <v>1</v>
+      </c>
       <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-    </row>
-    <row r="68" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="S67" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T67" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="U67" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V67" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A68" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
+        <v>30</v>
+      </c>
+      <c r="D68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="28">
+        <v>30432</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H68" s="14">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J68" s="29">
+        <v>43802</v>
+      </c>
+      <c r="K68" s="29">
+        <v>42940</v>
+      </c>
+      <c r="L68" s="17">
+        <f t="shared" si="6"/>
+        <v>28.733333333333334</v>
+      </c>
+      <c r="M68" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>35.56666666666667</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
+      <c r="Q68" s="8">
+        <v>1</v>
+      </c>
       <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
-    </row>
-    <row r="69" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
+      <c r="S68" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T68" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="U68" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V68" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A69" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>30</v>
+      </c>
+      <c r="D69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H69" s="14">
+        <v>1</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" s="29">
+        <v>43813</v>
+      </c>
+      <c r="K69" s="29">
+        <v>42867</v>
+      </c>
+      <c r="L69" s="17">
+        <f t="shared" si="6"/>
+        <v>31.533333333333335</v>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
-    </row>
-    <row r="70" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="S69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T69" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="U69" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V69" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A70" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>30</v>
+      </c>
+      <c r="D70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="28">
+        <v>30433</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H70" s="14">
+        <v>2</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J70" s="29">
+        <v>43853</v>
+      </c>
+      <c r="K70" s="29">
+        <v>42920</v>
+      </c>
+      <c r="L70" s="17">
+        <f t="shared" si="6"/>
+        <v>31.1</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>36.233333333333334</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
+      <c r="Q70" s="8">
+        <v>1</v>
+      </c>
       <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-    </row>
-    <row r="71" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="S70" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T70" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="U70" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V70" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A71" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>30</v>
+      </c>
+      <c r="D71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="28">
+        <v>30434</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H71" s="14">
+        <v>2</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J71" s="29">
+        <v>43862</v>
+      </c>
+      <c r="K71" s="29">
+        <v>42947</v>
+      </c>
+      <c r="L71" s="17">
+        <f t="shared" si="6"/>
+        <v>30.5</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>35.333333333333336</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
+      <c r="Q71" s="8">
+        <v>1</v>
+      </c>
       <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
-    </row>
-    <row r="72" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="S71" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T71" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="U71" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V71" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>30</v>
+      </c>
+      <c r="D72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="28">
+        <v>30462</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H72" s="14">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J72" s="29">
+        <v>43847</v>
+      </c>
+      <c r="K72" s="29">
+        <v>42942</v>
+      </c>
+      <c r="L72" s="17">
+        <f t="shared" si="6"/>
+        <v>30.166666666666668</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>35.5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
+      <c r="Q72" s="8">
+        <v>1</v>
+      </c>
       <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
-    </row>
-    <row r="73" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="S72" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T72" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="U72" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V72" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A73" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>24</v>
+      </c>
+      <c r="D73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H73" s="14">
+        <v>1</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J73" s="29">
+        <v>43840</v>
+      </c>
+      <c r="K73" s="29">
+        <v>43118</v>
+      </c>
+      <c r="L73" s="17">
+        <f t="shared" si="6"/>
+        <v>24.066666666666666</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>29.633333333333333</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
+      <c r="Q73" s="8">
+        <v>1</v>
+      </c>
       <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-    </row>
-    <row r="74" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="S73" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T73" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="U73" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V73" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A74" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>24</v>
+      </c>
+      <c r="D74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H74" s="14">
+        <v>2</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J74" s="29">
+        <v>43841</v>
+      </c>
+      <c r="K74" s="29">
+        <v>43077</v>
+      </c>
+      <c r="L74" s="17">
+        <f t="shared" si="6"/>
+        <v>25.466666666666665</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
+      <c r="Q74" s="8">
+        <v>1</v>
+      </c>
       <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-    </row>
-    <row r="75" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+      <c r="S74" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T74" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="U74" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V74" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A75" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>24</v>
+      </c>
+      <c r="D75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="28">
+        <v>24508</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H75" s="14">
+        <v>3</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J75" s="29">
+        <v>43841</v>
+      </c>
+      <c r="K75" s="29">
+        <v>43079</v>
+      </c>
+      <c r="L75" s="17">
+        <f t="shared" si="6"/>
+        <v>25.4</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>30.933333333333334</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
+      <c r="Q75" s="8">
+        <v>1</v>
+      </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-    </row>
-    <row r="76" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+      <c r="S75" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T75" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="U75" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V75" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A76" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>24</v>
+      </c>
+      <c r="D76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="28">
+        <v>24509</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H76" s="14">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J76" s="29">
+        <v>43843</v>
+      </c>
+      <c r="K76" s="29">
+        <v>43109</v>
+      </c>
+      <c r="L76" s="17">
+        <f t="shared" si="6"/>
+        <v>24.466666666666665</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>29.933333333333334</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
+      <c r="Q76" s="8">
+        <v>1</v>
+      </c>
       <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
-    </row>
-    <row r="77" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+      <c r="S76" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T76" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="U76" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V76" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A77" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>24</v>
+      </c>
+      <c r="D77" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="28">
+        <v>24510</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H77" s="14">
+        <v>1</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J77" s="29">
+        <v>43844</v>
+      </c>
+      <c r="K77" s="29">
+        <v>43085</v>
+      </c>
+      <c r="L77" s="17">
+        <f t="shared" si="6"/>
+        <v>25.3</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>30.733333333333334</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
+      <c r="Q77" s="8">
+        <v>1</v>
+      </c>
       <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
-    </row>
-    <row r="78" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="S77" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T77" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="U77" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A78" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>24</v>
+      </c>
+      <c r="D78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="28">
+        <v>24511</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H78" s="14">
+        <v>2</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J78" s="29">
+        <v>43846</v>
+      </c>
+      <c r="K78" s="29">
+        <v>43131</v>
+      </c>
+      <c r="L78" s="17">
+        <f t="shared" si="6"/>
+        <v>23.833333333333332</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>29.2</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="Q78" s="8">
+        <v>1</v>
+      </c>
       <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
-    </row>
-    <row r="79" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+      <c r="S78" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T78" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="U78" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V78" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A79" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3">
+        <v>24</v>
+      </c>
+      <c r="D79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="28">
+        <v>24712</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H79" s="14">
+        <v>3</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J79" s="29">
+        <v>43851</v>
+      </c>
+      <c r="K79" s="29">
+        <v>43125</v>
+      </c>
+      <c r="L79" s="17">
+        <f t="shared" si="6"/>
+        <v>24.2</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>29.4</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
+      <c r="Q79" s="8">
+        <v>1</v>
+      </c>
       <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
-    </row>
-    <row r="80" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+      <c r="S79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T79" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="U79" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A80" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>24</v>
+      </c>
+      <c r="D80" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="28">
+        <v>24713</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80" s="14">
+        <v>2</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J80" s="29">
+        <v>43853</v>
+      </c>
+      <c r="K80" s="29">
+        <v>43088</v>
+      </c>
+      <c r="L80" s="17">
+        <f t="shared" si="6"/>
+        <v>25.5</v>
+      </c>
+      <c r="M80" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>30.633333333333333</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
+      <c r="Q80" s="8">
+        <v>1</v>
+      </c>
       <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="12"/>
-    </row>
-    <row r="81" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="S80" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T80" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="U80" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V80" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A81" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>24</v>
+      </c>
+      <c r="D81" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="28">
+        <v>24714</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H81" s="14">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J81" s="29">
+        <v>43854</v>
+      </c>
+      <c r="K81" s="29">
+        <v>43126</v>
+      </c>
+      <c r="L81" s="17">
+        <f t="shared" si="6"/>
+        <v>24.266666666666666</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>29.366666666666667</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
+      <c r="Q81" s="8">
+        <v>1</v>
+      </c>
       <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="U81" s="12"/>
-      <c r="V81" s="12"/>
-    </row>
-    <row r="82" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="S81" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T81" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="U81" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V81" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A82" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>24</v>
+      </c>
+      <c r="D82" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="28">
+        <v>24715</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H82" s="14">
+        <v>4</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J82" s="29">
+        <v>43861</v>
+      </c>
+      <c r="K82" s="29">
+        <v>43123</v>
+      </c>
+      <c r="L82" s="17">
+        <f t="shared" si="6"/>
+        <v>24.6</v>
+      </c>
+      <c r="M82" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>29.466666666666665</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
+      <c r="Q82" s="8">
+        <v>1</v>
+      </c>
       <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="12"/>
-    </row>
-    <row r="83" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
+      <c r="S82" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T82" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="U82" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V82" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A83" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>21</v>
+      </c>
+      <c r="D83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="27">
+        <v>210059</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H83" s="14">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J83" s="9">
+        <v>43801</v>
+      </c>
+      <c r="K83" s="9">
+        <v>43163</v>
+      </c>
+      <c r="L83" s="17">
+        <f t="shared" ref="L83:L104" si="8">(J83-K83)/30</f>
+        <v>21.266666666666666</v>
+      </c>
+      <c r="M83" s="10">
+        <f t="shared" ref="M83:M104" ca="1" si="9">(TODAY()-K83)/30</f>
+        <v>28.133333333333333</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
+      <c r="Q83" s="8">
+        <v>1</v>
+      </c>
       <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="U83" s="12"/>
-      <c r="V83" s="12"/>
-    </row>
-    <row r="84" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
+      <c r="S83" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T83" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="U83" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V83" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A84" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>21</v>
+      </c>
+      <c r="D84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="27">
+        <v>210060</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H84" s="14">
+        <v>2</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J84" s="9">
+        <v>43803</v>
+      </c>
+      <c r="K84" s="9">
+        <v>43153</v>
+      </c>
+      <c r="L84" s="17">
+        <f t="shared" si="8"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="M84" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.466666666666665</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
+      <c r="Q84" s="8">
+        <v>1</v>
+      </c>
       <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="12"/>
-    </row>
-    <row r="85" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
+      <c r="S84" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T84" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="U84" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V84" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A85" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>21</v>
+      </c>
+      <c r="D85" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="27">
+        <v>210061</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H85" s="14">
+        <v>3</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J85" s="9">
+        <v>43804</v>
+      </c>
+      <c r="K85" s="9">
+        <v>43164</v>
+      </c>
+      <c r="L85" s="17">
+        <f t="shared" si="8"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.1</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
+      <c r="Q85" s="8">
+        <v>1</v>
+      </c>
       <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
-    </row>
-    <row r="86" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
+      <c r="S85" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T85" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="U85" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V85" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A86" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>21</v>
+      </c>
+      <c r="D86" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="27">
+        <v>210062</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H86" s="14">
+        <v>4</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J86" s="9">
+        <v>43804</v>
+      </c>
+      <c r="K86" s="9">
+        <v>43169</v>
+      </c>
+      <c r="L86" s="17">
+        <f t="shared" si="8"/>
+        <v>21.166666666666668</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>27.933333333333334</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
+      <c r="Q86" s="8">
+        <v>1</v>
+      </c>
       <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="12"/>
-    </row>
-    <row r="87" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
+      <c r="S86" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T86" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="U86" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V86" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A87" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>21</v>
+      </c>
+      <c r="D87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="27">
+        <v>210063</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H87" s="14">
+        <v>1</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J87" s="9">
+        <v>43805</v>
+      </c>
+      <c r="K87" s="9">
+        <v>43154</v>
+      </c>
+      <c r="L87" s="17">
+        <f t="shared" si="8"/>
+        <v>21.7</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.433333333333334</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
+      <c r="Q87" s="8">
+        <v>1</v>
+      </c>
       <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="12"/>
-    </row>
-    <row r="88" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+      <c r="S87" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T87" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="U87" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V87" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A88" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3">
+        <v>21</v>
+      </c>
+      <c r="D88" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="27">
+        <v>210064</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88" s="14">
+        <v>2</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J88" s="9">
+        <v>43809</v>
+      </c>
+      <c r="K88" s="9">
+        <v>43189</v>
+      </c>
+      <c r="L88" s="17">
+        <f t="shared" si="8"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>27.266666666666666</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
+      <c r="Q88" s="8">
+        <v>1</v>
+      </c>
       <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-    </row>
-    <row r="89" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
+      <c r="S88" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T88" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="U88" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V88" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A89" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3">
+        <v>21</v>
+      </c>
+      <c r="D89" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="27">
+        <v>210065</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="14">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J89" s="9">
+        <v>43812</v>
+      </c>
+      <c r="K89" s="9">
+        <v>43165</v>
+      </c>
+      <c r="L89" s="17">
+        <f t="shared" si="8"/>
+        <v>21.566666666666666</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.066666666666666</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
+      <c r="Q89" s="8">
+        <v>1</v>
+      </c>
       <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="U89" s="12"/>
-      <c r="V89" s="12"/>
-    </row>
-    <row r="90" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
+      <c r="S89" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T89" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="U89" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V89" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A90" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3">
+        <v>21</v>
+      </c>
+      <c r="D90" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="27">
+        <v>210066</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H90" s="14">
+        <v>4</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J90" s="9">
+        <v>43812</v>
+      </c>
+      <c r="K90" s="9">
+        <v>43140</v>
+      </c>
+      <c r="L90" s="17">
+        <f t="shared" si="8"/>
+        <v>22.4</v>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.9</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
+      <c r="Q90" s="8">
+        <v>1</v>
+      </c>
       <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="12"/>
-    </row>
-    <row r="91" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
+      <c r="S90" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T90" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="U90" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V90" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A91" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3">
+        <v>21</v>
+      </c>
+      <c r="D91" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="27">
+        <v>210067</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91" s="14">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J91" s="9">
+        <v>43813</v>
+      </c>
+      <c r="K91" s="9">
+        <v>43162</v>
+      </c>
+      <c r="L91" s="17">
+        <f t="shared" si="8"/>
+        <v>21.7</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.166666666666668</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
+      <c r="Q91" s="8">
+        <v>1</v>
+      </c>
       <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="U91" s="12"/>
-      <c r="V91" s="12"/>
-    </row>
-    <row r="92" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
+      <c r="S91" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T91" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="U91" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V91" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A92" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>21</v>
+      </c>
+      <c r="D92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="27">
+        <v>210068</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="14">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J92" s="9">
+        <v>43815</v>
+      </c>
+      <c r="K92" s="9">
+        <v>43173</v>
+      </c>
+      <c r="L92" s="17">
+        <f t="shared" si="8"/>
+        <v>21.4</v>
+      </c>
+      <c r="M92" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>27.8</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
+      <c r="Q92" s="8">
+        <v>1</v>
+      </c>
       <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="12"/>
-    </row>
-    <row r="93" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
+      <c r="S92" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T92" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="U92" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V92" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A93" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>21</v>
+      </c>
+      <c r="D93" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="27">
+        <v>210069</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="14">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J93" s="9">
+        <v>43817</v>
+      </c>
+      <c r="K93" s="9">
+        <v>43168</v>
+      </c>
+      <c r="L93" s="17">
+        <f t="shared" si="8"/>
+        <v>21.633333333333333</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>27.966666666666665</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
+      <c r="Q93" s="8">
+        <v>1</v>
+      </c>
       <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="12"/>
-    </row>
-    <row r="94" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
+      <c r="S93" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T93" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="U93" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V93" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A94" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3">
+        <v>21</v>
+      </c>
+      <c r="D94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="27">
+        <v>210070</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94" s="14">
+        <v>2</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J94" s="9">
+        <v>43853</v>
+      </c>
+      <c r="K94" s="9">
+        <v>43198</v>
+      </c>
+      <c r="L94" s="17">
+        <f t="shared" si="8"/>
+        <v>21.833333333333332</v>
+      </c>
+      <c r="M94" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.966666666666665</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
+      <c r="Q94" s="8">
+        <v>1</v>
+      </c>
       <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="12"/>
-    </row>
-    <row r="95" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
+      <c r="S94" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T94" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="U94" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V94" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A95" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>21</v>
+      </c>
+      <c r="D95" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="27">
+        <v>210071</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" s="14">
+        <v>2</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J95" s="9">
+        <v>43854</v>
+      </c>
+      <c r="K95" s="9">
+        <v>43219</v>
+      </c>
+      <c r="L95" s="17">
+        <f t="shared" si="8"/>
+        <v>21.166666666666668</v>
+      </c>
+      <c r="M95" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.266666666666666</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
+      <c r="Q95" s="8">
+        <v>1</v>
+      </c>
       <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="U95" s="12"/>
-      <c r="V95" s="12"/>
-    </row>
-    <row r="96" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
+      <c r="S95" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T95" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="U95" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V95" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A96" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
+        <v>21</v>
+      </c>
+      <c r="D96" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="27">
+        <v>210072</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H96" s="14">
+        <v>3</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J96" s="9">
+        <v>43854</v>
+      </c>
+      <c r="K96" s="9">
+        <v>43209</v>
+      </c>
+      <c r="L96" s="17">
+        <f t="shared" si="8"/>
+        <v>21.5</v>
+      </c>
+      <c r="M96" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.6</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
+      <c r="Q96" s="8">
+        <v>1</v>
+      </c>
       <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="U96" s="12"/>
-      <c r="V96" s="12"/>
-    </row>
-    <row r="97" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
+      <c r="S96" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T96" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="U96" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V96" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A97" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3">
+        <v>21</v>
+      </c>
+      <c r="D97" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="27">
+        <v>210073</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H97" s="14">
+        <v>4</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J97" s="9">
+        <v>43857</v>
+      </c>
+      <c r="K97" s="9">
+        <v>43206</v>
+      </c>
+      <c r="L97" s="17">
+        <f t="shared" si="8"/>
+        <v>21.7</v>
+      </c>
+      <c r="M97" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.7</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
+      <c r="Q97" s="8">
+        <v>1</v>
+      </c>
       <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="12"/>
-    </row>
-    <row r="98" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
+      <c r="S97" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T97" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="U97" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V97" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A98" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>21</v>
+      </c>
+      <c r="D98" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="27">
+        <v>210074</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H98" s="14">
+        <v>4</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J98" s="9">
+        <v>43858</v>
+      </c>
+      <c r="K98" s="9">
+        <v>43209</v>
+      </c>
+      <c r="L98" s="17">
+        <f t="shared" si="8"/>
+        <v>21.633333333333333</v>
+      </c>
+      <c r="M98" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.6</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
+      <c r="Q98" s="8">
+        <v>1</v>
+      </c>
       <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="U98" s="12"/>
-      <c r="V98" s="12"/>
-    </row>
-    <row r="99" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
+      <c r="S98" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T98" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="U98" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V98" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A99" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3">
+        <v>21</v>
+      </c>
+      <c r="D99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" s="27">
+        <v>210075</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H99" s="14">
+        <v>2</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J99" s="9">
+        <v>43858</v>
+      </c>
+      <c r="K99" s="9">
+        <v>43219</v>
+      </c>
+      <c r="L99" s="17">
+        <f t="shared" si="8"/>
+        <v>21.3</v>
+      </c>
+      <c r="M99" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.266666666666666</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
+      <c r="Q99" s="8">
+        <v>1</v>
+      </c>
       <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-    </row>
-    <row r="100" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
+      <c r="S99" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T99" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="U99" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V99" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A100" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3">
+        <v>21</v>
+      </c>
+      <c r="D100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" s="27">
+        <v>210076</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H100" s="14">
+        <v>1</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J100" s="9">
+        <v>43860</v>
+      </c>
+      <c r="K100" s="9">
+        <v>43226</v>
+      </c>
+      <c r="L100" s="17">
+        <f t="shared" si="8"/>
+        <v>21.133333333333333</v>
+      </c>
+      <c r="M100" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.033333333333335</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
+      <c r="Q100" s="8">
+        <v>1</v>
+      </c>
       <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="U100" s="12"/>
-      <c r="V100" s="12"/>
-    </row>
-    <row r="101" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
+      <c r="S100" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T100" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="U100" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V100" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A101" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>21</v>
+      </c>
+      <c r="D101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="27">
+        <v>210077</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H101" s="14">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J101" s="9">
+        <v>43861</v>
+      </c>
+      <c r="K101" s="9">
+        <v>43212</v>
+      </c>
+      <c r="L101" s="17">
+        <f t="shared" si="8"/>
+        <v>21.633333333333333</v>
+      </c>
+      <c r="M101" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.5</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
+      <c r="Q101" s="8">
+        <v>1</v>
+      </c>
       <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="U101" s="12"/>
-      <c r="V101" s="12"/>
-    </row>
-    <row r="102" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
+      <c r="S101" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T101" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="U101" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V101" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A102" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3">
+        <v>21</v>
+      </c>
+      <c r="D102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="27">
+        <v>210078</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H102" s="14">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J102" s="9">
+        <v>43861</v>
+      </c>
+      <c r="K102" s="9">
+        <v>43227</v>
+      </c>
+      <c r="L102" s="17">
+        <f t="shared" si="8"/>
+        <v>21.133333333333333</v>
+      </c>
+      <c r="M102" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
+      <c r="Q102" s="8">
+        <v>1</v>
+      </c>
       <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="U102" s="12"/>
-      <c r="V102" s="12"/>
-    </row>
-    <row r="103" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
+      <c r="S102" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T102" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="U102" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V102" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A103" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3">
+        <v>21</v>
+      </c>
+      <c r="D103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="27">
+        <v>210079</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H103" s="14">
+        <v>4</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J103" s="9">
+        <v>43861</v>
+      </c>
+      <c r="K103" s="9">
+        <v>43211</v>
+      </c>
+      <c r="L103" s="17">
+        <f t="shared" si="8"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="M103" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.533333333333335</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
+      <c r="Q103" s="8">
+        <v>1</v>
+      </c>
       <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="U103" s="12"/>
-      <c r="V103" s="12"/>
-    </row>
-    <row r="104" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
+      <c r="S103" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T103" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="U103" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V103" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A104" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3">
+        <v>21</v>
+      </c>
+      <c r="D104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="27">
+        <v>210080</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H104" s="14">
+        <v>1</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J104" s="9">
+        <v>43864</v>
+      </c>
+      <c r="K104" s="9">
+        <v>43237</v>
+      </c>
+      <c r="L104" s="17">
+        <f t="shared" si="8"/>
+        <v>20.9</v>
+      </c>
+      <c r="M104" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
+      <c r="Q104" s="8">
+        <v>1</v>
+      </c>
       <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-    </row>
-    <row r="105" spans="10:22" x14ac:dyDescent="0.15">
+      <c r="S104" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T104" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="U104" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V104" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="O105" s="8"/>
@@ -6247,7 +8693,7 @@
       <c r="U105" s="12"/>
       <c r="V105" s="12"/>
     </row>
-    <row r="106" spans="10:22" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="O106" s="8"/>
@@ -6258,7 +8704,7 @@
       <c r="U106" s="12"/>
       <c r="V106" s="12"/>
     </row>
-    <row r="107" spans="10:22" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="O107" s="8"/>
@@ -6269,7 +8715,7 @@
       <c r="U107" s="12"/>
       <c r="V107" s="12"/>
     </row>
-    <row r="108" spans="10:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="O108" s="8"/>
@@ -6280,7 +8726,7 @@
       <c r="U108" s="12"/>
       <c r="V108" s="12"/>
     </row>
-    <row r="109" spans="10:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="O109" s="8"/>
@@ -6291,7 +8737,7 @@
       <c r="U109" s="12"/>
       <c r="V109" s="12"/>
     </row>
-    <row r="110" spans="10:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="O110" s="8"/>
@@ -6302,7 +8748,7 @@
       <c r="U110" s="12"/>
       <c r="V110" s="12"/>
     </row>
-    <row r="111" spans="10:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="O111" s="8"/>
@@ -6313,7 +8759,7 @@
       <c r="U111" s="12"/>
       <c r="V111" s="12"/>
     </row>
-    <row r="112" spans="10:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="O112" s="8"/>
@@ -15817,80 +18263,58 @@
       <c r="U975" s="12"/>
       <c r="V975" s="12"/>
     </row>
-    <row r="976" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J976" s="9"/>
-      <c r="K976" s="9"/>
-      <c r="O976" s="8"/>
-      <c r="P976" s="8"/>
-      <c r="Q976" s="8"/>
-      <c r="R976" s="8"/>
-      <c r="S976" s="8"/>
-      <c r="U976" s="12"/>
-      <c r="V976" s="12"/>
-    </row>
-    <row r="977" spans="10:22" x14ac:dyDescent="0.15">
-      <c r="J977" s="9"/>
-      <c r="K977" s="9"/>
-      <c r="O977" s="8"/>
-      <c r="P977" s="8"/>
-      <c r="Q977" s="8"/>
-      <c r="R977" s="8"/>
-      <c r="S977" s="8"/>
-      <c r="U977" s="12"/>
-      <c r="V977" s="12"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U50:V977 U48:V48">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="no">
+  <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U48:V48 U50:V975">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH(("no"),(T1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U50:V977 U48:V48">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="yes">
+  <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U48:V48 U50:V975">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH(("yes"),(T1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U50:V977 U48:V48">
-    <cfRule type="expression" dxfId="18" priority="20">
+  <conditionalFormatting sqref="T22:T27 T20:U20 T30:T32 U1:V2 U21:U37 U3:U19 V3:V37 U37:V46 U47:U49 V47 V49 U48:V48 U50:V975">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>"check"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E1048576 E46:E57 E59:E62 E1:E44">
-    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
+  <conditionalFormatting sqref="E73:E1048576 E46:E57 E59:E62 E1:E44">
+    <cfRule type="duplicateValues" dxfId="10" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",U1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Monolingual"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15953,7 +18377,7 @@
       </c>
       <c r="D2" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>48.9</v>
+        <v>48.93333333333333</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -15979,7 +18403,7 @@
       </c>
       <c r="D3" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.533333333333335</v>
+        <v>31.566666666666666</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16005,7 +18429,7 @@
       </c>
       <c r="D4" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>41.8</v>
+        <v>41.833333333333336</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16031,7 +18455,7 @@
       </c>
       <c r="D5" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>40.56666666666667</v>
+        <v>40.6</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16057,7 +18481,7 @@
       </c>
       <c r="D6" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>38.06666666666667</v>
+        <v>38.1</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16083,7 +18507,7 @@
       </c>
       <c r="D7" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>40.5</v>
+        <v>40.533333333333331</v>
       </c>
       <c r="E7" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16109,7 +18533,7 @@
       </c>
       <c r="D8" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>38.5</v>
+        <v>38.533333333333331</v>
       </c>
       <c r="E8" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16135,7 +18559,7 @@
       </c>
       <c r="D9" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>38.5</v>
+        <v>38.533333333333331</v>
       </c>
       <c r="E9" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16161,7 +18585,7 @@
       </c>
       <c r="D10" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>39.4</v>
+        <v>39.43333333333333</v>
       </c>
       <c r="E10" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16187,7 +18611,7 @@
       </c>
       <c r="D11" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>36.133333333333333</v>
+        <v>36.166666666666664</v>
       </c>
       <c r="E11" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16213,7 +18637,7 @@
       </c>
       <c r="D12" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>36.466666666666669</v>
+        <v>36.5</v>
       </c>
       <c r="E12" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16239,7 +18663,7 @@
       </c>
       <c r="D13" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>38.333333333333336</v>
+        <v>38.366666666666667</v>
       </c>
       <c r="E13" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16265,7 +18689,7 @@
       </c>
       <c r="D14" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>40.4</v>
+        <v>40.43333333333333</v>
       </c>
       <c r="E14" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16291,7 +18715,7 @@
       </c>
       <c r="D15" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>39.166666666666664</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E15" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16317,7 +18741,7 @@
       </c>
       <c r="D16" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>38.43333333333333</v>
+        <v>38.466666666666669</v>
       </c>
       <c r="E16" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16343,7 +18767,7 @@
       </c>
       <c r="D17" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>38.466666666666669</v>
+        <v>38.5</v>
       </c>
       <c r="E17" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16369,7 +18793,7 @@
       </c>
       <c r="D18" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>37.533333333333331</v>
+        <v>37.56666666666667</v>
       </c>
       <c r="E18" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16395,7 +18819,7 @@
       </c>
       <c r="D19" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>35.666666666666664</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E19" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16421,7 +18845,7 @@
       </c>
       <c r="D20" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>36.9</v>
+        <v>36.93333333333333</v>
       </c>
       <c r="E20" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16447,7 +18871,7 @@
       </c>
       <c r="D21" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>34.133333333333333</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="E21" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16473,7 +18897,7 @@
       </c>
       <c r="D22" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>35.633333333333333</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="E22" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16499,7 +18923,7 @@
       </c>
       <c r="D23" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>43.466666666666669</v>
+        <v>43.5</v>
       </c>
       <c r="E23" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16525,7 +18949,7 @@
       </c>
       <c r="D24" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>34.1</v>
+        <v>34.133333333333333</v>
       </c>
       <c r="E24" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16551,7 +18975,7 @@
       </c>
       <c r="D25" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.066666666666666</v>
+        <v>31.1</v>
       </c>
       <c r="E25" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16577,7 +19001,7 @@
       </c>
       <c r="D26" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>36.9</v>
+        <v>36.93333333333333</v>
       </c>
       <c r="E26" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16603,7 +19027,7 @@
       </c>
       <c r="D27" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>34.366666666666667</v>
+        <v>34.4</v>
       </c>
       <c r="E27" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16629,7 +19053,7 @@
       </c>
       <c r="D28" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>35.166666666666664</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E28" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16655,7 +19079,7 @@
       </c>
       <c r="D29" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>34.866666666666667</v>
+        <v>34.9</v>
       </c>
       <c r="E29" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16681,7 +19105,7 @@
       </c>
       <c r="D30" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>33.200000000000003</v>
+        <v>33.233333333333334</v>
       </c>
       <c r="E30" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16707,7 +19131,7 @@
       </c>
       <c r="D31" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>32.5</v>
+        <v>32.533333333333331</v>
       </c>
       <c r="E31" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16733,7 +19157,7 @@
       </c>
       <c r="D32" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>32.799999999999997</v>
+        <v>32.833333333333336</v>
       </c>
       <c r="E32" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16759,7 +19183,7 @@
       </c>
       <c r="D33" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>33.1</v>
+        <v>33.133333333333333</v>
       </c>
       <c r="E33" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16785,7 +19209,7 @@
       </c>
       <c r="D34" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>32.466666666666669</v>
+        <v>32.5</v>
       </c>
       <c r="E34" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16811,7 +19235,7 @@
       </c>
       <c r="D35" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>32.6</v>
+        <v>32.633333333333333</v>
       </c>
       <c r="E35" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16837,7 +19261,7 @@
       </c>
       <c r="D36" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.8</v>
+        <v>31.833333333333332</v>
       </c>
       <c r="E36" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16863,7 +19287,7 @@
       </c>
       <c r="D37" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.333333333333332</v>
+        <v>31.366666666666667</v>
       </c>
       <c r="E37" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16889,7 +19313,7 @@
       </c>
       <c r="D38" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>28.233333333333334</v>
+        <v>28.266666666666666</v>
       </c>
       <c r="E38" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16915,7 +19339,7 @@
       </c>
       <c r="D39" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.866666666666667</v>
+        <v>31.9</v>
       </c>
       <c r="E39" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16941,7 +19365,7 @@
       </c>
       <c r="D40" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>32.133333333333333</v>
+        <v>32.166666666666664</v>
       </c>
       <c r="E40" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16967,7 +19391,7 @@
       </c>
       <c r="D41" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.5</v>
+        <v>31.533333333333335</v>
       </c>
       <c r="E41" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -16993,7 +19417,7 @@
       </c>
       <c r="D42" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.4</v>
+        <v>31.433333333333334</v>
       </c>
       <c r="E42" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17019,7 +19443,7 @@
       </c>
       <c r="D43" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>30.6</v>
+        <v>30.633333333333333</v>
       </c>
       <c r="E43" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17045,7 +19469,7 @@
       </c>
       <c r="D44" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>30.766666666666666</v>
+        <v>30.8</v>
       </c>
       <c r="E44" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17071,7 +19495,7 @@
       </c>
       <c r="D45" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>31.833333333333332</v>
+        <v>31.866666666666667</v>
       </c>
       <c r="E45" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17097,7 +19521,7 @@
       </c>
       <c r="D46" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>24.333333333333332</v>
+        <v>24.366666666666667</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>155</v>
@@ -17123,7 +19547,7 @@
       </c>
       <c r="D47" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>30.1</v>
+        <v>30.133333333333333</v>
       </c>
       <c r="E47" t="str">
         <f ca="1">IF(AND(19&lt;=Table1[[#This Row],[AgeToday]], Table1[[#This Row],[AgeToday]]&lt;21), "pending", "")</f>
@@ -17149,7 +19573,7 @@
       </c>
       <c r="D48" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>24.266666666666666</v>
+        <v>24.3</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>156</v>
@@ -17174,7 +19598,7 @@
       </c>
       <c r="D49" s="10">
         <f ca="1">(TODAY()-Table1[[#This Row],[DateBirth]])/30</f>
-        <v>24.266666666666666</v>
+        <v>24.3</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>156</v>
@@ -17189,13 +19613,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:G49">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="participated">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="participated">
       <formula>NOT(ISERROR(SEARCH("participated",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="scheduled">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="scheduled">
       <formula>NOT(ISERROR(SEARCH("scheduled",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="pending">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="pending">
       <formula>NOT(ISERROR(SEARCH("pending",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
